--- a/docs/report.xlsx
+++ b/docs/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\!Development\!GitHubPublished\Octree\benchmarks\x64\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\!Development\!GitHubPublished\Octree\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -816,37 +816,37 @@
                   <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7000000000000002E-2</c:v>
+                  <c:v>5.5E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.123</c:v>
+                  <c:v>0.13300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24299999999999999</c:v>
+                  <c:v>0.22800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37</c:v>
+                  <c:v>0.32500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.48099999999999998</c:v>
+                  <c:v>0.44400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.46</c:v>
+                  <c:v>4.202</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.81</c:v>
+                  <c:v>41.244999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>442.79500000000002</c:v>
+                  <c:v>426.07499999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4549.95</c:v>
+                  <c:v>4240.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -945,37 +945,37 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7000000000000002E-2</c:v>
+                  <c:v>5.6000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9.6000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17799999999999999</c:v>
+                  <c:v>0.14099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23300000000000001</c:v>
+                  <c:v>0.19800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32700000000000001</c:v>
+                  <c:v>0.253</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8959999999999999</c:v>
+                  <c:v>2.633</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.768000000000001</c:v>
+                  <c:v>25.190999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>280.50299999999999</c:v>
+                  <c:v>237.65899999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2912.25</c:v>
+                  <c:v>2568.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1069,40 +1069,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>4.0000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.27900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77200000000000002</c:v>
+                  <c:v>0.46100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3839999999999999</c:v>
+                  <c:v>0.72099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.698</c:v>
+                  <c:v>1.2170000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.468</c:v>
+                  <c:v>16.245999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>107.97799999999999</c:v>
+                  <c:v>103.843</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>939.21400000000006</c:v>
+                  <c:v>898.69100000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9417.3799999999992</c:v>
+                  <c:v>9097.7000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1201,37 +1201,37 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1999999999999999E-2</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.153</c:v>
+                  <c:v>8.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23499999999999999</c:v>
+                  <c:v>0.222</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63</c:v>
+                  <c:v>0.29299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.085</c:v>
+                  <c:v>0.47099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3089999999999999</c:v>
+                  <c:v>0.83599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.239000000000001</c:v>
+                  <c:v>11.363</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53.843000000000004</c:v>
+                  <c:v>50.262999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>396.53899999999999</c:v>
+                  <c:v>364.63799999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4186.51</c:v>
+                  <c:v>3821.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1586,40 +1586,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>4.0000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.122</c:v>
+                  <c:v>8.1000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40600000000000003</c:v>
+                  <c:v>0.24199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66400000000000003</c:v>
+                  <c:v>0.61299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0109999999999999</c:v>
+                  <c:v>0.82599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.484</c:v>
+                  <c:v>1.012</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.773</c:v>
+                  <c:v>11.148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>86.875</c:v>
+                  <c:v>83.525000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>835.41200000000003</c:v>
+                  <c:v>787.84500000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8408.7900000000009</c:v>
+                  <c:v>8241.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2027,37 +2027,37 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4E-2</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.124</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35299999999999998</c:v>
+                  <c:v>0.20899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53900000000000003</c:v>
+                  <c:v>0.48699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.81799999999999995</c:v>
+                  <c:v>0.624</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1879999999999999</c:v>
+                  <c:v>0.70299999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.1639999999999997</c:v>
+                  <c:v>7.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.625</c:v>
+                  <c:v>39.17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>373.43</c:v>
+                  <c:v>335.58</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3826.7</c:v>
+                  <c:v>3535.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2123,10 +2123,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0165700000000001E-3</c:v>
+                  <c:v>1.0151299999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10165.700000000001</c:v>
+                  <c:v>10151.299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2683,37 +2683,37 @@
                   <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5999999999999999E-2</c:v>
+                  <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11</c:v>
+                  <c:v>8.3000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.222</c:v>
+                  <c:v>0.16500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32900000000000001</c:v>
+                  <c:v>0.252</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.438</c:v>
+                  <c:v>0.33900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8869999999999996</c:v>
+                  <c:v>3.9289999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49.307000000000002</c:v>
+                  <c:v>40.110999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>512.12599999999998</c:v>
+                  <c:v>423.52699999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5610.52</c:v>
+                  <c:v>4565.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2812,37 +2812,37 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0999999999999999E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.04</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2999999999999995E-2</c:v>
+                  <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.126</c:v>
+                  <c:v>8.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17299999999999999</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22</c:v>
+                  <c:v>0.14699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.77</c:v>
+                  <c:v>1.829</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.126000000000001</c:v>
+                  <c:v>17.420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>270.70100000000002</c:v>
+                  <c:v>194.28899999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3058.53</c:v>
+                  <c:v>2221.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2939,37 +2939,37 @@
                   <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.157</c:v>
+                  <c:v>0.13400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39900000000000002</c:v>
+                  <c:v>0.34300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.752</c:v>
+                  <c:v>0.65100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0900000000000001</c:v>
+                  <c:v>0.97299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.337</c:v>
+                  <c:v>1.1739999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.426</c:v>
+                  <c:v>12.281000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>124.375</c:v>
+                  <c:v>108.66800000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1252.99</c:v>
+                  <c:v>1074.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12440.4</c:v>
+                  <c:v>10151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3065,40 +3065,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2999999999999999E-2</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7E-2</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.128</c:v>
+                  <c:v>9.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.251</c:v>
+                  <c:v>0.19400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44700000000000001</c:v>
+                  <c:v>0.34100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64600000000000002</c:v>
+                  <c:v>0.498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.71699999999999997</c:v>
+                  <c:v>0.54100000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.7370000000000001</c:v>
+                  <c:v>5.5170000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57.685000000000002</c:v>
+                  <c:v>48.316000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>554.69000000000005</c:v>
+                  <c:v>421.87799999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5594.48</c:v>
+                  <c:v>4374.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3456,37 +3456,37 @@
                   <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0999999999999999E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.126</c:v>
+                  <c:v>0.105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30199999999999999</c:v>
+                  <c:v>0.23300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59399999999999997</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.83899999999999997</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.081</c:v>
+                  <c:v>0.88100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.961</c:v>
+                  <c:v>8.5730000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>102.044</c:v>
+                  <c:v>83.224999999999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1011.03</c:v>
+                  <c:v>833.63699999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10212.299999999999</c:v>
+                  <c:v>8363.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3891,40 +3891,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2999999999999999E-2</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1999999999999999E-2</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10199999999999999</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19900000000000001</c:v>
+                  <c:v>0.14899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36299999999999999</c:v>
+                  <c:v>0.26600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51400000000000001</c:v>
+                  <c:v>0.36099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65900000000000003</c:v>
+                  <c:v>0.49199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.6459999999999999</c:v>
+                  <c:v>4.359</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.277999999999999</c:v>
+                  <c:v>42.543999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>476.85599999999999</c:v>
+                  <c:v>405.83100000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4918.38</c:v>
+                  <c:v>4109.7700000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3990,10 +3990,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.3617899999999999E-3</c:v>
+                  <c:v>1.23986E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13617.9</c:v>
+                  <c:v>12398.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4489,9 +4489,7 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-93BC-4033-9F9A-FD1B17CF6453}"/>
                 </c:ext>
@@ -4501,9 +4499,7 @@
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-93BC-4033-9F9A-FD1B17CF6453}"/>
                 </c:ext>
@@ -4537,9 +4533,7 @@
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-93BC-4033-9F9A-FD1B17CF6453}"/>
                 </c:ext>
@@ -4655,40 +4649,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>4.0000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16600000000000001</c:v>
+                  <c:v>7.8E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28799999999999998</c:v>
+                  <c:v>0.27600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.45600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.71799999999999997</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2789999999999999</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.593</c:v>
+                  <c:v>1.1439999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.399000000000001</c:v>
+                  <c:v>15.903</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>105.928</c:v>
+                  <c:v>102.354</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>931.44200000000001</c:v>
+                  <c:v>892.05700000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9320.98</c:v>
+                  <c:v>9059.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4759,9 +4753,7 @@
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-93BC-4033-9F9A-FD1B17CF6453}"/>
                 </c:ext>
@@ -4795,9 +4787,7 @@
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-93BC-4033-9F9A-FD1B17CF6453}"/>
                 </c:ext>
@@ -4937,40 +4927,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.0000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0999999999999999E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16</c:v>
+                  <c:v>0.157</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30199999999999999</c:v>
+                  <c:v>0.28699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8</c:v>
+                  <c:v>0.75700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3720000000000001</c:v>
+                  <c:v>1.3280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.738</c:v>
+                  <c:v>1.6379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.577999999999999</c:v>
+                  <c:v>18.545999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>168.798</c:v>
+                  <c:v>162.16900000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2013.11</c:v>
+                  <c:v>1905.63</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23265.7</c:v>
+                  <c:v>22359.599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5142,9 +5132,7 @@
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-93BC-4033-9F9A-FD1B17CF6453}"/>
                 </c:ext>
@@ -5723,7 +5711,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="hu-HU" baseline="0"/>
-              <a:t>Range search performance: Naive vs OctreePoint::RangeSearch </a:t>
+              <a:t>Range search performance: Naive vs OctreePoint::RangeSearch and Create </a:t>
             </a:r>
             <a:br>
               <a:rPr lang="hu-HU" baseline="0"/>
@@ -5819,9 +5807,7 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-9AED-465E-B34D-BBC1C48444ED}"/>
                 </c:ext>
@@ -5831,9 +5817,7 @@
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-9AED-465E-B34D-BBC1C48444ED}"/>
                 </c:ext>
@@ -5843,9 +5827,7 @@
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-9AED-465E-B34D-BBC1C48444ED}"/>
                 </c:ext>
@@ -5855,9 +5837,7 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-9AED-465E-B34D-BBC1C48444ED}"/>
                 </c:ext>
@@ -5867,9 +5847,7 @@
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-9AED-465E-B34D-BBC1C48444ED}"/>
                 </c:ext>
@@ -5879,9 +5857,7 @@
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-9AED-465E-B34D-BBC1C48444ED}"/>
                 </c:ext>
@@ -6033,52 +6009,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.504</c:v>
+                  <c:v>0.49099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1439999999999999</c:v>
+                  <c:v>1.1279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.992</c:v>
+                  <c:v>1.9530000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.109</c:v>
+                  <c:v>3.052</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3810000000000002</c:v>
+                  <c:v>4.2969999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8780000000000001</c:v>
+                  <c:v>5.7169999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5259999999999998</c:v>
+                  <c:v>7.359</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.779</c:v>
+                  <c:v>11.513</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.696999999999999</c:v>
+                  <c:v>16.407</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.739000000000001</c:v>
+                  <c:v>22.385999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.652999999999999</c:v>
+                  <c:v>29.466999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46.497999999999998</c:v>
+                  <c:v>45.542000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>67.085999999999999</c:v>
+                  <c:v>65.721999999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>104.801</c:v>
+                  <c:v>102.429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6184,52 +6160,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2.1999999999999999E-2</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16700000000000001</c:v>
+                  <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32500000000000001</c:v>
+                  <c:v>0.13500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63400000000000001</c:v>
+                  <c:v>0.223</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93100000000000005</c:v>
+                  <c:v>0.31900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1779999999999999</c:v>
+                  <c:v>0.39900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.399</c:v>
+                  <c:v>0.53100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7629999999999999</c:v>
+                  <c:v>0.67300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8520000000000001</c:v>
+                  <c:v>0.79500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.363</c:v>
+                  <c:v>0.96699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9079999999999999</c:v>
+                  <c:v>1.111</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.468</c:v>
+                  <c:v>1.274</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6959999999999997</c:v>
+                  <c:v>1.4390000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2140000000000004</c:v>
+                  <c:v>1.77</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.5210000000000008</c:v>
+                  <c:v>2.0619999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.055999999999999</c:v>
+                  <c:v>2.7410000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6276,9 +6252,7 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-DBE6-43DE-910A-83DED8CCA67B}"/>
                 </c:ext>
@@ -6298,9 +6272,7 @@
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-DBE6-43DE-910A-83DED8CCA67B}"/>
                 </c:ext>
@@ -6310,9 +6282,7 @@
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-DBE6-43DE-910A-83DED8CCA67B}"/>
                 </c:ext>
@@ -6346,9 +6316,7 @@
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-DBE6-43DE-910A-83DED8CCA67B}"/>
                 </c:ext>
@@ -6358,9 +6326,7 @@
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-DBE6-43DE-910A-83DED8CCA67B}"/>
                 </c:ext>
@@ -6656,52 +6622,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>3.4000000000000002E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.182</c:v>
+                  <c:v>6.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35299999999999998</c:v>
+                  <c:v>0.13900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66400000000000003</c:v>
+                  <c:v>0.20899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90600000000000003</c:v>
+                  <c:v>0.28299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1910000000000001</c:v>
+                  <c:v>0.34200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4179999999999999</c:v>
+                  <c:v>0.51800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7569999999999999</c:v>
+                  <c:v>0.64800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8220000000000001</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3450000000000002</c:v>
+                  <c:v>0.90400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.802</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.327</c:v>
+                  <c:v>1.1240000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4889999999999999</c:v>
+                  <c:v>1.2330000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.9089999999999998</c:v>
+                  <c:v>1.48</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.1240000000000006</c:v>
+                  <c:v>1.6930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.384</c:v>
+                  <c:v>2.1890000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9397,15 +9363,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>551550</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>146100</xdr:rowOff>
+      <xdr:colOff>418200</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>41325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9694,8 +9660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H150" sqref="H150"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S192" sqref="S192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9718,7 +9684,7 @@
         <v>100000000</v>
       </c>
       <c r="E1">
-        <v>10557.3</v>
+        <v>10107.4</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -9728,7 +9694,7 @@
       </c>
       <c r="I1">
         <f>E1/D1*10</f>
-        <v>1.0557299999999999E-3</v>
+        <v>1.01074E-3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -9768,7 +9734,7 @@
         <v>50</v>
       </c>
       <c r="E3">
-        <v>5.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F3">
         <v>16</v>
@@ -9791,7 +9757,7 @@
         <v>100</v>
       </c>
       <c r="E4">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -9814,7 +9780,7 @@
         <v>1000</v>
       </c>
       <c r="E5">
-        <v>5.7000000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F5">
         <v>66</v>
@@ -9837,7 +9803,7 @@
         <v>2500</v>
       </c>
       <c r="E6">
-        <v>0.123</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="F6">
         <v>66</v>
@@ -9860,7 +9826,7 @@
         <v>5000</v>
       </c>
       <c r="E7">
-        <v>0.24299999999999999</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="F7">
         <v>66</v>
@@ -9883,7 +9849,7 @@
         <v>7500</v>
       </c>
       <c r="E8">
-        <v>0.37</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F8">
         <v>66</v>
@@ -9906,7 +9872,7 @@
         <v>10000</v>
       </c>
       <c r="E9">
-        <v>0.48099999999999998</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="F9">
         <v>66</v>
@@ -9929,7 +9895,7 @@
         <v>100000</v>
       </c>
       <c r="E10">
-        <v>4.46</v>
+        <v>4.202</v>
       </c>
       <c r="F10">
         <v>66</v>
@@ -9952,7 +9918,7 @@
         <v>1000000</v>
       </c>
       <c r="E11">
-        <v>43.81</v>
+        <v>41.244999999999997</v>
       </c>
       <c r="F11">
         <v>66</v>
@@ -9975,7 +9941,7 @@
         <v>10000000</v>
       </c>
       <c r="E12">
-        <v>442.79500000000002</v>
+        <v>426.07499999999999</v>
       </c>
       <c r="F12">
         <v>66</v>
@@ -9998,7 +9964,7 @@
         <v>100000000</v>
       </c>
       <c r="E13">
-        <v>4549.95</v>
+        <v>4240.45</v>
       </c>
       <c r="F13">
         <v>66</v>
@@ -10044,7 +10010,7 @@
         <v>50</v>
       </c>
       <c r="E15">
-        <v>0.01</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F15">
         <v>16</v>
@@ -10067,7 +10033,7 @@
         <v>100</v>
       </c>
       <c r="E16">
-        <v>1.7000000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F16">
         <v>30</v>
@@ -10090,7 +10056,7 @@
         <v>1000</v>
       </c>
       <c r="E17">
-        <v>5.7000000000000002E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="F17">
         <v>66</v>
@@ -10136,7 +10102,7 @@
         <v>5000</v>
       </c>
       <c r="E19">
-        <v>0.17799999999999999</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="F19">
         <v>66</v>
@@ -10159,7 +10125,7 @@
         <v>7500</v>
       </c>
       <c r="E20">
-        <v>0.23300000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="F20">
         <v>66</v>
@@ -10182,7 +10148,7 @@
         <v>10000</v>
       </c>
       <c r="E21">
-        <v>0.32700000000000001</v>
+        <v>0.253</v>
       </c>
       <c r="F21">
         <v>66</v>
@@ -10205,7 +10171,7 @@
         <v>100000</v>
       </c>
       <c r="E22">
-        <v>2.8959999999999999</v>
+        <v>2.633</v>
       </c>
       <c r="F22">
         <v>66</v>
@@ -10228,7 +10194,7 @@
         <v>1000000</v>
       </c>
       <c r="E23">
-        <v>26.768000000000001</v>
+        <v>25.190999999999999</v>
       </c>
       <c r="F23">
         <v>66</v>
@@ -10251,7 +10217,7 @@
         <v>10000000</v>
       </c>
       <c r="E24">
-        <v>280.50299999999999</v>
+        <v>237.65899999999999</v>
       </c>
       <c r="F24">
         <v>66</v>
@@ -10274,7 +10240,7 @@
         <v>100000000</v>
       </c>
       <c r="E25">
-        <v>2912.25</v>
+        <v>2568.14</v>
       </c>
       <c r="F25">
         <v>66</v>
@@ -10297,7 +10263,7 @@
         <v>100000000</v>
       </c>
       <c r="E26">
-        <v>6686.01</v>
+        <v>6643.13</v>
       </c>
       <c r="F26" t="s">
         <v>2</v>
@@ -10307,7 +10273,7 @@
       </c>
       <c r="I26">
         <f>E26/D26*10</f>
-        <v>6.68601E-4</v>
+        <v>6.6431299999999993E-4</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -10324,7 +10290,7 @@
         <v>10</v>
       </c>
       <c r="E27">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -10347,7 +10313,7 @@
         <v>50</v>
       </c>
       <c r="E28">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F28">
         <v>15</v>
@@ -10370,7 +10336,7 @@
         <v>100</v>
       </c>
       <c r="E29">
-        <v>1.2E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F29">
         <v>48</v>
@@ -10393,7 +10359,7 @@
         <v>1000</v>
       </c>
       <c r="E30">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="F30">
         <v>473</v>
@@ -10416,7 +10382,7 @@
         <v>2500</v>
       </c>
       <c r="E31">
-        <v>0.28999999999999998</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="F31">
         <v>611</v>
@@ -10439,7 +10405,7 @@
         <v>5000</v>
       </c>
       <c r="E32">
-        <v>0.77200000000000002</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="F32">
         <v>1836</v>
@@ -10462,7 +10428,7 @@
         <v>7500</v>
       </c>
       <c r="E33">
-        <v>1.3839999999999999</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="F33">
         <v>3606</v>
@@ -10485,7 +10451,7 @@
         <v>10000</v>
       </c>
       <c r="E34">
-        <v>1.698</v>
+        <v>1.2170000000000001</v>
       </c>
       <c r="F34">
         <v>4252</v>
@@ -10508,7 +10474,7 @@
         <v>100000</v>
       </c>
       <c r="E35">
-        <v>18.468</v>
+        <v>16.245999999999999</v>
       </c>
       <c r="F35">
         <v>35659</v>
@@ -10531,7 +10497,7 @@
         <v>1000000</v>
       </c>
       <c r="E36">
-        <v>107.97799999999999</v>
+        <v>103.843</v>
       </c>
       <c r="F36">
         <v>37449</v>
@@ -10554,7 +10520,7 @@
         <v>10000000</v>
       </c>
       <c r="E37">
-        <v>939.21400000000006</v>
+        <v>898.69100000000003</v>
       </c>
       <c r="F37">
         <v>37449</v>
@@ -10577,7 +10543,7 @@
         <v>100000000</v>
       </c>
       <c r="E38">
-        <v>9417.3799999999992</v>
+        <v>9097.7000000000007</v>
       </c>
       <c r="F38">
         <v>37449</v>
@@ -10623,7 +10589,7 @@
         <v>50</v>
       </c>
       <c r="E40">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F40">
         <v>15</v>
@@ -10646,7 +10612,7 @@
         <v>100</v>
       </c>
       <c r="E41">
-        <v>2.1999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F41">
         <v>48</v>
@@ -10669,7 +10635,7 @@
         <v>1000</v>
       </c>
       <c r="E42">
-        <v>0.153</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F42">
         <v>473</v>
@@ -10692,7 +10658,7 @@
         <v>2500</v>
       </c>
       <c r="E43">
-        <v>0.23499999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="F43">
         <v>611</v>
@@ -10715,7 +10681,7 @@
         <v>5000</v>
       </c>
       <c r="E44">
-        <v>0.63</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="F44">
         <v>1836</v>
@@ -10738,7 +10704,7 @@
         <v>7500</v>
       </c>
       <c r="E45">
-        <v>1.085</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="F45">
         <v>3606</v>
@@ -10761,7 +10727,7 @@
         <v>10000</v>
       </c>
       <c r="E46">
-        <v>1.3089999999999999</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="F46">
         <v>4252</v>
@@ -10784,7 +10750,7 @@
         <v>100000</v>
       </c>
       <c r="E47">
-        <v>13.239000000000001</v>
+        <v>11.363</v>
       </c>
       <c r="F47">
         <v>35659</v>
@@ -10807,7 +10773,7 @@
         <v>1000000</v>
       </c>
       <c r="E48">
-        <v>53.843000000000004</v>
+        <v>50.262999999999998</v>
       </c>
       <c r="F48">
         <v>37449</v>
@@ -10830,7 +10796,7 @@
         <v>10000000</v>
       </c>
       <c r="E49">
-        <v>396.53899999999999</v>
+        <v>364.63799999999998</v>
       </c>
       <c r="F49">
         <v>37449</v>
@@ -10853,7 +10819,7 @@
         <v>100000000</v>
       </c>
       <c r="E50">
-        <v>4186.51</v>
+        <v>3821.03</v>
       </c>
       <c r="F50">
         <v>37449</v>
@@ -10876,7 +10842,7 @@
         <v>100000000</v>
       </c>
       <c r="E51">
-        <v>10165.700000000001</v>
+        <v>10151.299999999999</v>
       </c>
       <c r="F51" t="s">
         <v>2</v>
@@ -10886,7 +10852,7 @@
       </c>
       <c r="I51">
         <f>E51/D51*10</f>
-        <v>1.0165700000000001E-3</v>
+        <v>1.0151299999999999E-3</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -10903,7 +10869,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -10949,7 +10915,7 @@
         <v>100</v>
       </c>
       <c r="E54">
-        <v>1.4E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F54">
         <v>56</v>
@@ -10972,7 +10938,7 @@
         <v>1000</v>
       </c>
       <c r="E55">
-        <v>0.122</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="F55">
         <v>315</v>
@@ -10995,7 +10961,7 @@
         <v>2500</v>
       </c>
       <c r="E56">
-        <v>0.40600000000000003</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="F56">
         <v>1091</v>
@@ -11018,7 +10984,7 @@
         <v>5000</v>
       </c>
       <c r="E57">
-        <v>0.66400000000000003</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="F57">
         <v>1463</v>
@@ -11041,7 +11007,7 @@
         <v>7500</v>
       </c>
       <c r="E58">
-        <v>1.0109999999999999</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="F58">
         <v>2187</v>
@@ -11064,7 +11030,7 @@
         <v>10000</v>
       </c>
       <c r="E59">
-        <v>1.484</v>
+        <v>1.012</v>
       </c>
       <c r="F59">
         <v>3592</v>
@@ -11087,7 +11053,7 @@
         <v>100000</v>
       </c>
       <c r="E60">
-        <v>11.773</v>
+        <v>11.148</v>
       </c>
       <c r="F60">
         <v>10943</v>
@@ -11110,7 +11076,7 @@
         <v>1000000</v>
       </c>
       <c r="E61">
-        <v>86.875</v>
+        <v>83.525000000000006</v>
       </c>
       <c r="F61">
         <v>12068</v>
@@ -11133,7 +11099,7 @@
         <v>10000000</v>
       </c>
       <c r="E62">
-        <v>835.41200000000003</v>
+        <v>787.84500000000003</v>
       </c>
       <c r="F62">
         <v>12174</v>
@@ -11156,7 +11122,7 @@
         <v>100000000</v>
       </c>
       <c r="E63">
-        <v>8408.7900000000009</v>
+        <v>8241.74</v>
       </c>
       <c r="F63">
         <v>12174</v>
@@ -11202,7 +11168,7 @@
         <v>50</v>
       </c>
       <c r="E65">
-        <v>8.0000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F65">
         <v>9</v>
@@ -11225,7 +11191,7 @@
         <v>100</v>
       </c>
       <c r="E66">
-        <v>2.4E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F66">
         <v>56</v>
@@ -11248,7 +11214,7 @@
         <v>1000</v>
       </c>
       <c r="E67">
-        <v>0.124</v>
+        <v>0.09</v>
       </c>
       <c r="F67">
         <v>315</v>
@@ -11271,7 +11237,7 @@
         <v>2500</v>
       </c>
       <c r="E68">
-        <v>0.35299999999999998</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="F68">
         <v>1091</v>
@@ -11294,7 +11260,7 @@
         <v>5000</v>
       </c>
       <c r="E69">
-        <v>0.53900000000000003</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="F69">
         <v>1463</v>
@@ -11317,7 +11283,7 @@
         <v>7500</v>
       </c>
       <c r="E70">
-        <v>0.81799999999999995</v>
+        <v>0.624</v>
       </c>
       <c r="F70">
         <v>2187</v>
@@ -11340,7 +11306,7 @@
         <v>10000</v>
       </c>
       <c r="E71">
-        <v>1.1879999999999999</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="F71">
         <v>3592</v>
@@ -11363,7 +11329,7 @@
         <v>100000</v>
       </c>
       <c r="E72">
-        <v>7.1639999999999997</v>
+        <v>7.08</v>
       </c>
       <c r="F72">
         <v>10943</v>
@@ -11386,7 +11352,7 @@
         <v>1000000</v>
       </c>
       <c r="E73">
-        <v>40.625</v>
+        <v>39.17</v>
       </c>
       <c r="F73">
         <v>12068</v>
@@ -11409,7 +11375,7 @@
         <v>10000000</v>
       </c>
       <c r="E74">
-        <v>373.43</v>
+        <v>335.58</v>
       </c>
       <c r="F74">
         <v>12174</v>
@@ -11432,7 +11398,7 @@
         <v>100000000</v>
       </c>
       <c r="E75">
-        <v>3826.7</v>
+        <v>3535.06</v>
       </c>
       <c r="F75">
         <v>12174</v>
@@ -11455,7 +11421,7 @@
         <v>100000000</v>
       </c>
       <c r="E76">
-        <v>2216.41</v>
+        <v>2191.48</v>
       </c>
       <c r="F76" t="s">
         <v>2</v>
@@ -11465,7 +11431,7 @@
       </c>
       <c r="I76">
         <f>E76/D76*10</f>
-        <v>2.2164100000000001E-4</v>
+        <v>2.1914799999999998E-4</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -11505,7 +11471,7 @@
         <v>50</v>
       </c>
       <c r="E78">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F78">
         <v>9</v>
@@ -11528,7 +11494,7 @@
         <v>100</v>
       </c>
       <c r="E79">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F79">
         <v>9</v>
@@ -11551,7 +11517,7 @@
         <v>1000</v>
       </c>
       <c r="E80">
-        <v>4.5999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F80">
         <v>9</v>
@@ -11574,7 +11540,7 @@
         <v>2500</v>
       </c>
       <c r="E81">
-        <v>0.11</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="F81">
         <v>9</v>
@@ -11597,7 +11563,7 @@
         <v>5000</v>
       </c>
       <c r="E82">
-        <v>0.222</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F82">
         <v>9</v>
@@ -11620,7 +11586,7 @@
         <v>7500</v>
       </c>
       <c r="E83">
-        <v>0.32900000000000001</v>
+        <v>0.252</v>
       </c>
       <c r="F83">
         <v>9</v>
@@ -11643,7 +11609,7 @@
         <v>10000</v>
       </c>
       <c r="E84">
-        <v>0.438</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="F84">
         <v>9</v>
@@ -11666,7 +11632,7 @@
         <v>100000</v>
       </c>
       <c r="E85">
-        <v>4.8869999999999996</v>
+        <v>3.9289999999999998</v>
       </c>
       <c r="F85">
         <v>9</v>
@@ -11689,7 +11655,7 @@
         <v>1000000</v>
       </c>
       <c r="E86">
-        <v>49.307000000000002</v>
+        <v>40.110999999999997</v>
       </c>
       <c r="F86">
         <v>9</v>
@@ -11712,7 +11678,7 @@
         <v>10000000</v>
       </c>
       <c r="E87">
-        <v>512.12599999999998</v>
+        <v>423.52699999999999</v>
       </c>
       <c r="F87">
         <v>12</v>
@@ -11735,7 +11701,7 @@
         <v>100000000</v>
       </c>
       <c r="E88">
-        <v>5610.52</v>
+        <v>4565.07</v>
       </c>
       <c r="F88">
         <v>51</v>
@@ -11781,7 +11747,7 @@
         <v>50</v>
       </c>
       <c r="E90">
-        <v>1.0999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F90">
         <v>9</v>
@@ -11804,7 +11770,7 @@
         <v>100</v>
       </c>
       <c r="E91">
-        <v>1.6E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F91">
         <v>9</v>
@@ -11827,7 +11793,7 @@
         <v>1000</v>
       </c>
       <c r="E92">
-        <v>0.04</v>
+        <v>3.1E-2</v>
       </c>
       <c r="F92">
         <v>9</v>
@@ -11850,7 +11816,7 @@
         <v>2500</v>
       </c>
       <c r="E93">
-        <v>7.2999999999999995E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="F93">
         <v>9</v>
@@ -11873,7 +11839,7 @@
         <v>5000</v>
       </c>
       <c r="E94">
-        <v>0.126</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F94">
         <v>9</v>
@@ -11896,7 +11862,7 @@
         <v>7500</v>
       </c>
       <c r="E95">
-        <v>0.17299999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="F95">
         <v>9</v>
@@ -11919,7 +11885,7 @@
         <v>10000</v>
       </c>
       <c r="E96">
-        <v>0.22</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="F96">
         <v>9</v>
@@ -11942,7 +11908,7 @@
         <v>100000</v>
       </c>
       <c r="E97">
-        <v>2.77</v>
+        <v>1.829</v>
       </c>
       <c r="F97">
         <v>9</v>
@@ -11965,7 +11931,7 @@
         <v>1000000</v>
       </c>
       <c r="E98">
-        <v>28.126000000000001</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="F98">
         <v>9</v>
@@ -11988,7 +11954,7 @@
         <v>10000000</v>
       </c>
       <c r="E99">
-        <v>270.70100000000002</v>
+        <v>194.28899999999999</v>
       </c>
       <c r="F99">
         <v>12</v>
@@ -12011,7 +11977,7 @@
         <v>100000000</v>
       </c>
       <c r="E100">
-        <v>3058.53</v>
+        <v>2221.11</v>
       </c>
       <c r="F100">
         <v>51</v>
@@ -12034,7 +12000,7 @@
         <v>100000000</v>
       </c>
       <c r="E101">
-        <v>10566.8</v>
+        <v>10794.6</v>
       </c>
       <c r="F101" t="s">
         <v>2</v>
@@ -12044,7 +12010,7 @@
       </c>
       <c r="I101">
         <f>E101/D101*10</f>
-        <v>1.0566799999999999E-3</v>
+        <v>1.07946E-3</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -12084,7 +12050,7 @@
         <v>50</v>
       </c>
       <c r="E103">
-        <v>5.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F103">
         <v>11</v>
@@ -12107,7 +12073,7 @@
         <v>100</v>
       </c>
       <c r="E104">
-        <v>1.4999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F104">
         <v>34</v>
@@ -12130,7 +12096,7 @@
         <v>1000</v>
       </c>
       <c r="E105">
-        <v>0.157</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="F105">
         <v>129</v>
@@ -12153,7 +12119,7 @@
         <v>2500</v>
       </c>
       <c r="E106">
-        <v>0.39900000000000002</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="F106">
         <v>244</v>
@@ -12176,7 +12142,7 @@
         <v>5000</v>
       </c>
       <c r="E107">
-        <v>0.752</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="F107">
         <v>268</v>
@@ -12199,7 +12165,7 @@
         <v>7500</v>
       </c>
       <c r="E108">
-        <v>1.0900000000000001</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="F108">
         <v>311</v>
@@ -12222,7 +12188,7 @@
         <v>10000</v>
       </c>
       <c r="E109">
-        <v>1.337</v>
+        <v>1.1739999999999999</v>
       </c>
       <c r="F109">
         <v>377</v>
@@ -12245,7 +12211,7 @@
         <v>100000</v>
       </c>
       <c r="E110">
-        <v>13.426</v>
+        <v>12.281000000000001</v>
       </c>
       <c r="F110">
         <v>1600</v>
@@ -12268,7 +12234,7 @@
         <v>1000000</v>
       </c>
       <c r="E111">
-        <v>124.375</v>
+        <v>108.66800000000001</v>
       </c>
       <c r="F111">
         <v>3474</v>
@@ -12291,7 +12257,7 @@
         <v>10000000</v>
       </c>
       <c r="E112">
-        <v>1252.99</v>
+        <v>1074.75</v>
       </c>
       <c r="F112">
         <v>3493</v>
@@ -12314,7 +12280,7 @@
         <v>100000000</v>
       </c>
       <c r="E113">
-        <v>12440.4</v>
+        <v>10151</v>
       </c>
       <c r="F113">
         <v>3493</v>
@@ -12337,7 +12303,7 @@
         <v>10</v>
       </c>
       <c r="E114">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -12360,7 +12326,7 @@
         <v>50</v>
       </c>
       <c r="E115">
-        <v>1.2999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F115">
         <v>11</v>
@@ -12383,7 +12349,7 @@
         <v>100</v>
       </c>
       <c r="E116">
-        <v>2.7E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F116">
         <v>34</v>
@@ -12406,7 +12372,7 @@
         <v>1000</v>
       </c>
       <c r="E117">
-        <v>0.128</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="F117">
         <v>129</v>
@@ -12429,7 +12395,7 @@
         <v>2500</v>
       </c>
       <c r="E118">
-        <v>0.251</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="F118">
         <v>244</v>
@@ -12452,7 +12418,7 @@
         <v>5000</v>
       </c>
       <c r="E119">
-        <v>0.44700000000000001</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="F119">
         <v>268</v>
@@ -12475,7 +12441,7 @@
         <v>7500</v>
       </c>
       <c r="E120">
-        <v>0.64600000000000002</v>
+        <v>0.498</v>
       </c>
       <c r="F120">
         <v>311</v>
@@ -12498,7 +12464,7 @@
         <v>10000</v>
       </c>
       <c r="E121">
-        <v>0.71699999999999997</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="F121">
         <v>377</v>
@@ -12521,7 +12487,7 @@
         <v>100000</v>
       </c>
       <c r="E122">
-        <v>6.7370000000000001</v>
+        <v>5.5170000000000003</v>
       </c>
       <c r="F122">
         <v>1600</v>
@@ -12544,7 +12510,7 @@
         <v>1000000</v>
       </c>
       <c r="E123">
-        <v>57.685000000000002</v>
+        <v>48.316000000000003</v>
       </c>
       <c r="F123">
         <v>3474</v>
@@ -12567,7 +12533,7 @@
         <v>10000000</v>
       </c>
       <c r="E124">
-        <v>554.69000000000005</v>
+        <v>421.87799999999999</v>
       </c>
       <c r="F124">
         <v>3493</v>
@@ -12590,7 +12556,7 @@
         <v>100000000</v>
       </c>
       <c r="E125">
-        <v>5594.48</v>
+        <v>4374.7</v>
       </c>
       <c r="F125">
         <v>3493</v>
@@ -12613,7 +12579,7 @@
         <v>100000000</v>
       </c>
       <c r="E126">
-        <v>13617.9</v>
+        <v>12398.6</v>
       </c>
       <c r="F126" t="s">
         <v>2</v>
@@ -12623,7 +12589,7 @@
       </c>
       <c r="I126">
         <f>E126/D126*10</f>
-        <v>1.3617899999999999E-3</v>
+        <v>1.23986E-3</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -12663,7 +12629,7 @@
         <v>50</v>
       </c>
       <c r="E128">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F128">
         <v>10</v>
@@ -12686,7 +12652,7 @@
         <v>100</v>
       </c>
       <c r="E129">
-        <v>1.0999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F129">
         <v>19</v>
@@ -12709,7 +12675,7 @@
         <v>1000</v>
       </c>
       <c r="E130">
-        <v>0.126</v>
+        <v>0.105</v>
       </c>
       <c r="F130">
         <v>97</v>
@@ -12732,7 +12698,7 @@
         <v>2500</v>
       </c>
       <c r="E131">
-        <v>0.30199999999999999</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="F131">
         <v>161</v>
@@ -12755,7 +12721,7 @@
         <v>5000</v>
       </c>
       <c r="E132">
-        <v>0.59399999999999997</v>
+        <v>0.45</v>
       </c>
       <c r="F132">
         <v>198</v>
@@ -12778,7 +12744,7 @@
         <v>7500</v>
       </c>
       <c r="E133">
-        <v>0.83899999999999997</v>
+        <v>0.65</v>
       </c>
       <c r="F133">
         <v>236</v>
@@ -12801,7 +12767,7 @@
         <v>10000</v>
       </c>
       <c r="E134">
-        <v>1.081</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="F134">
         <v>299</v>
@@ -12824,7 +12790,7 @@
         <v>100000</v>
       </c>
       <c r="E135">
-        <v>10.961</v>
+        <v>8.5730000000000004</v>
       </c>
       <c r="F135">
         <v>1061</v>
@@ -12847,7 +12813,7 @@
         <v>1000000</v>
       </c>
       <c r="E136">
-        <v>102.044</v>
+        <v>83.224999999999994</v>
       </c>
       <c r="F136">
         <v>2245</v>
@@ -12870,7 +12836,7 @@
         <v>10000000</v>
       </c>
       <c r="E137">
-        <v>1011.03</v>
+        <v>833.63699999999994</v>
       </c>
       <c r="F137">
         <v>2300</v>
@@ -12893,7 +12859,7 @@
         <v>100000000</v>
       </c>
       <c r="E138">
-        <v>10212.299999999999</v>
+        <v>8363.59</v>
       </c>
       <c r="F138">
         <v>2307</v>
@@ -12916,7 +12882,7 @@
         <v>10</v>
       </c>
       <c r="E139">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -12939,7 +12905,7 @@
         <v>50</v>
       </c>
       <c r="E140">
-        <v>1.2999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F140">
         <v>10</v>
@@ -12962,7 +12928,7 @@
         <v>100</v>
       </c>
       <c r="E141">
-        <v>2.1999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F141">
         <v>19</v>
@@ -12985,7 +12951,7 @@
         <v>1000</v>
       </c>
       <c r="E142">
-        <v>0.10199999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="F142">
         <v>97</v>
@@ -13008,7 +12974,7 @@
         <v>2500</v>
       </c>
       <c r="E143">
-        <v>0.19900000000000001</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="F143">
         <v>161</v>
@@ -13031,7 +12997,7 @@
         <v>5000</v>
       </c>
       <c r="E144">
-        <v>0.36299999999999999</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="F144">
         <v>198</v>
@@ -13054,7 +13020,7 @@
         <v>7500</v>
       </c>
       <c r="E145">
-        <v>0.51400000000000001</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="F145">
         <v>236</v>
@@ -13077,7 +13043,7 @@
         <v>10000</v>
       </c>
       <c r="E146">
-        <v>0.65900000000000003</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="F146">
         <v>299</v>
@@ -13100,7 +13066,7 @@
         <v>100000</v>
       </c>
       <c r="E147">
-        <v>5.6459999999999999</v>
+        <v>4.359</v>
       </c>
       <c r="F147">
         <v>1061</v>
@@ -13123,7 +13089,7 @@
         <v>1000000</v>
       </c>
       <c r="E148">
-        <v>52.277999999999999</v>
+        <v>42.543999999999997</v>
       </c>
       <c r="F148">
         <v>2245</v>
@@ -13146,7 +13112,7 @@
         <v>10000000</v>
       </c>
       <c r="E149">
-        <v>476.85599999999999</v>
+        <v>405.83100000000002</v>
       </c>
       <c r="F149">
         <v>2300</v>
@@ -13169,7 +13135,7 @@
         <v>100000000</v>
       </c>
       <c r="E150">
-        <v>4918.38</v>
+        <v>4109.7700000000004</v>
       </c>
       <c r="F150">
         <v>2307</v>
@@ -13195,7 +13161,7 @@
         <v>100000000</v>
       </c>
       <c r="E151">
-        <v>6449.95</v>
+        <v>10021.700000000001</v>
       </c>
       <c r="F151" t="s">
         <v>2</v>
@@ -13233,7 +13199,7 @@
         <v>10</v>
       </c>
       <c r="E152">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -13271,7 +13237,7 @@
         <v>50</v>
       </c>
       <c r="E153">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F153">
         <v>15</v>
@@ -13309,7 +13275,7 @@
         <v>100</v>
       </c>
       <c r="E154">
-        <v>1.0999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F154">
         <v>48</v>
@@ -13347,7 +13313,7 @@
         <v>1000</v>
       </c>
       <c r="E155">
-        <v>0.16600000000000001</v>
+        <v>7.8E-2</v>
       </c>
       <c r="F155">
         <v>473</v>
@@ -13385,7 +13351,7 @@
         <v>2500</v>
       </c>
       <c r="E156">
-        <v>0.28799999999999998</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="F156">
         <v>611</v>
@@ -13423,7 +13389,7 @@
         <v>5000</v>
       </c>
       <c r="E157">
-        <v>0.71799999999999997</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="F157">
         <v>1836</v>
@@ -13461,7 +13427,7 @@
         <v>7500</v>
       </c>
       <c r="E158">
-        <v>1.2789999999999999</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="F158">
         <v>3606</v>
@@ -13499,7 +13465,7 @@
         <v>10000</v>
       </c>
       <c r="E159">
-        <v>1.593</v>
+        <v>1.1439999999999999</v>
       </c>
       <c r="F159">
         <v>4252</v>
@@ -13537,7 +13503,7 @@
         <v>100000</v>
       </c>
       <c r="E160">
-        <v>18.399000000000001</v>
+        <v>15.903</v>
       </c>
       <c r="F160">
         <v>35659</v>
@@ -13575,7 +13541,7 @@
         <v>1000000</v>
       </c>
       <c r="E161">
-        <v>105.928</v>
+        <v>102.354</v>
       </c>
       <c r="F161">
         <v>37449</v>
@@ -13613,7 +13579,7 @@
         <v>10000000</v>
       </c>
       <c r="E162">
-        <v>931.44200000000001</v>
+        <v>892.05700000000002</v>
       </c>
       <c r="F162">
         <v>37449</v>
@@ -13651,7 +13617,7 @@
         <v>100000000</v>
       </c>
       <c r="E163">
-        <v>9320.98</v>
+        <v>9059.41</v>
       </c>
       <c r="F163">
         <v>37449</v>
@@ -13727,7 +13693,7 @@
         <v>50</v>
       </c>
       <c r="E165">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F165">
         <v>15</v>
@@ -13765,7 +13731,7 @@
         <v>100</v>
       </c>
       <c r="E166">
-        <v>2.1999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F166">
         <v>48</v>
@@ -13803,7 +13769,7 @@
         <v>1000</v>
       </c>
       <c r="E167">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="F167">
         <v>473</v>
@@ -13841,7 +13807,7 @@
         <v>2500</v>
       </c>
       <c r="E168">
-        <v>0.23400000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="F168">
         <v>611</v>
@@ -13879,7 +13845,7 @@
         <v>5000</v>
       </c>
       <c r="E169">
-        <v>0.63400000000000001</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="F169">
         <v>1836</v>
@@ -13917,7 +13883,7 @@
         <v>7500</v>
       </c>
       <c r="E170">
-        <v>1.0900000000000001</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="F170">
         <v>3606</v>
@@ -13955,7 +13921,7 @@
         <v>10000</v>
       </c>
       <c r="E171">
-        <v>1.304</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="F171">
         <v>4252</v>
@@ -13993,7 +13959,7 @@
         <v>100000</v>
       </c>
       <c r="E172">
-        <v>12.962</v>
+        <v>11.367000000000001</v>
       </c>
       <c r="F172">
         <v>35659</v>
@@ -14031,7 +13997,7 @@
         <v>1000000</v>
       </c>
       <c r="E173">
-        <v>52.896000000000001</v>
+        <v>50.804000000000002</v>
       </c>
       <c r="F173">
         <v>37449</v>
@@ -14069,7 +14035,7 @@
         <v>10000000</v>
       </c>
       <c r="E174">
-        <v>396.072</v>
+        <v>364.69099999999997</v>
       </c>
       <c r="F174">
         <v>37449</v>
@@ -14107,7 +14073,7 @@
         <v>100000000</v>
       </c>
       <c r="E175">
-        <v>4163.37</v>
+        <v>3822.97</v>
       </c>
       <c r="F175">
         <v>37449</v>
@@ -14145,7 +14111,7 @@
         <v>10</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -14183,7 +14149,7 @@
         <v>50</v>
       </c>
       <c r="E177">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F177">
         <v>8</v>
@@ -14221,7 +14187,7 @@
         <v>100</v>
       </c>
       <c r="E178">
-        <v>1.0999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F178">
         <v>8</v>
@@ -14259,7 +14225,7 @@
         <v>1000</v>
       </c>
       <c r="E179">
-        <v>0.16</v>
+        <v>0.157</v>
       </c>
       <c r="F179">
         <v>8</v>
@@ -14297,7 +14263,7 @@
         <v>2500</v>
       </c>
       <c r="E180">
-        <v>0.30199999999999999</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="F180">
         <v>8</v>
@@ -14335,7 +14301,7 @@
         <v>5000</v>
       </c>
       <c r="E181">
-        <v>0.8</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="F181">
         <v>8</v>
@@ -14373,7 +14339,7 @@
         <v>7500</v>
       </c>
       <c r="E182">
-        <v>1.3720000000000001</v>
+        <v>1.3280000000000001</v>
       </c>
       <c r="F182">
         <v>8</v>
@@ -14411,7 +14377,7 @@
         <v>10000</v>
       </c>
       <c r="E183">
-        <v>1.738</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="F183">
         <v>8</v>
@@ -14449,7 +14415,7 @@
         <v>100000</v>
       </c>
       <c r="E184">
-        <v>19.577999999999999</v>
+        <v>18.545999999999999</v>
       </c>
       <c r="F184">
         <v>8</v>
@@ -14487,7 +14453,7 @@
         <v>1000000</v>
       </c>
       <c r="E185">
-        <v>168.798</v>
+        <v>162.16900000000001</v>
       </c>
       <c r="F185">
         <v>8</v>
@@ -14507,7 +14473,7 @@
         <v>10000000</v>
       </c>
       <c r="E186">
-        <v>2013.11</v>
+        <v>1905.63</v>
       </c>
       <c r="F186">
         <v>8</v>
@@ -14527,7 +14493,7 @@
         <v>100000000</v>
       </c>
       <c r="E187">
-        <v>23265.7</v>
+        <v>22359.599999999999</v>
       </c>
       <c r="F187">
         <v>8</v>
@@ -14587,7 +14553,7 @@
         <v>100</v>
       </c>
       <c r="E190">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -14627,7 +14593,7 @@
         <v>1000</v>
       </c>
       <c r="E192">
-        <v>0.504</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="F192">
         <v>93</v>
@@ -14647,7 +14613,7 @@
         <v>1500</v>
       </c>
       <c r="E193">
-        <v>1.1439999999999999</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="F193">
         <v>220</v>
@@ -14667,7 +14633,7 @@
         <v>2000</v>
       </c>
       <c r="E194">
-        <v>1.992</v>
+        <v>1.9530000000000001</v>
       </c>
       <c r="F194">
         <v>390</v>
@@ -14687,7 +14653,7 @@
         <v>2500</v>
       </c>
       <c r="E195">
-        <v>3.109</v>
+        <v>3.052</v>
       </c>
       <c r="F195">
         <v>588</v>
@@ -14707,7 +14673,7 @@
         <v>3000</v>
       </c>
       <c r="E196">
-        <v>4.3810000000000002</v>
+        <v>4.2969999999999997</v>
       </c>
       <c r="F196">
         <v>851</v>
@@ -14727,7 +14693,7 @@
         <v>3500</v>
       </c>
       <c r="E197">
-        <v>5.8780000000000001</v>
+        <v>5.7169999999999996</v>
       </c>
       <c r="F197">
         <v>1080</v>
@@ -14747,7 +14713,7 @@
         <v>4000</v>
       </c>
       <c r="E198">
-        <v>7.5259999999999998</v>
+        <v>7.359</v>
       </c>
       <c r="F198">
         <v>1371</v>
@@ -14767,7 +14733,7 @@
         <v>5000</v>
       </c>
       <c r="E199">
-        <v>11.779</v>
+        <v>11.513</v>
       </c>
       <c r="F199">
         <v>2212</v>
@@ -14787,7 +14753,7 @@
         <v>6000</v>
       </c>
       <c r="E200">
-        <v>16.696999999999999</v>
+        <v>16.407</v>
       </c>
       <c r="F200">
         <v>3230</v>
@@ -14807,7 +14773,7 @@
         <v>7000</v>
       </c>
       <c r="E201">
-        <v>22.739000000000001</v>
+        <v>22.385999999999999</v>
       </c>
       <c r="F201">
         <v>4193</v>
@@ -14827,7 +14793,7 @@
         <v>8000</v>
       </c>
       <c r="E202">
-        <v>29.652999999999999</v>
+        <v>29.466999999999999</v>
       </c>
       <c r="F202">
         <v>5505</v>
@@ -14847,7 +14813,7 @@
         <v>10000</v>
       </c>
       <c r="E203">
-        <v>46.497999999999998</v>
+        <v>45.542000000000002</v>
       </c>
       <c r="F203">
         <v>8761</v>
@@ -14867,7 +14833,7 @@
         <v>12000</v>
       </c>
       <c r="E204">
-        <v>67.085999999999999</v>
+        <v>65.721999999999994</v>
       </c>
       <c r="F204">
         <v>12664</v>
@@ -14887,7 +14853,7 @@
         <v>15000</v>
       </c>
       <c r="E205">
-        <v>104.801</v>
+        <v>102.429</v>
       </c>
       <c r="F205">
         <v>19738</v>
@@ -14907,7 +14873,7 @@
         <v>100</v>
       </c>
       <c r="E206">
-        <v>2.1999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F206">
         <v>1</v>
@@ -14927,7 +14893,7 @@
         <v>500</v>
       </c>
       <c r="E207">
-        <v>0.16700000000000001</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="F207">
         <v>30</v>
@@ -14947,7 +14913,7 @@
         <v>1000</v>
       </c>
       <c r="E208">
-        <v>0.32500000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F208">
         <v>93</v>
@@ -14967,7 +14933,7 @@
         <v>1500</v>
       </c>
       <c r="E209">
-        <v>0.63400000000000001</v>
+        <v>0.223</v>
       </c>
       <c r="F209">
         <v>220</v>
@@ -14987,7 +14953,7 @@
         <v>2000</v>
       </c>
       <c r="E210">
-        <v>0.93100000000000005</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="F210">
         <v>390</v>
@@ -15007,7 +14973,7 @@
         <v>2500</v>
       </c>
       <c r="E211">
-        <v>1.1779999999999999</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="F211">
         <v>588</v>
@@ -15027,7 +14993,7 @@
         <v>3000</v>
       </c>
       <c r="E212">
-        <v>1.399</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="F212">
         <v>851</v>
@@ -15047,7 +15013,7 @@
         <v>3500</v>
       </c>
       <c r="E213">
-        <v>1.7629999999999999</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="F213">
         <v>1080</v>
@@ -15067,7 +15033,7 @@
         <v>4000</v>
       </c>
       <c r="E214">
-        <v>1.8520000000000001</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="F214">
         <v>1371</v>
@@ -15087,7 +15053,7 @@
         <v>5000</v>
       </c>
       <c r="E215">
-        <v>2.363</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="F215">
         <v>2210</v>
@@ -15107,7 +15073,7 @@
         <v>6000</v>
       </c>
       <c r="E216">
-        <v>2.9079999999999999</v>
+        <v>1.111</v>
       </c>
       <c r="F216">
         <v>3225</v>
@@ -15127,7 +15093,7 @@
         <v>7000</v>
       </c>
       <c r="E217">
-        <v>3.468</v>
+        <v>1.274</v>
       </c>
       <c r="F217">
         <v>4188</v>
@@ -15147,7 +15113,7 @@
         <v>8000</v>
       </c>
       <c r="E218">
-        <v>4.6959999999999997</v>
+        <v>1.4390000000000001</v>
       </c>
       <c r="F218">
         <v>5500</v>
@@ -15167,7 +15133,7 @@
         <v>10000</v>
       </c>
       <c r="E219">
-        <v>6.2140000000000004</v>
+        <v>1.77</v>
       </c>
       <c r="F219">
         <v>8754</v>
@@ -15187,7 +15153,7 @@
         <v>12000</v>
       </c>
       <c r="E220">
-        <v>8.5210000000000008</v>
+        <v>2.0619999999999998</v>
       </c>
       <c r="F220">
         <v>12657</v>
@@ -15207,7 +15173,7 @@
         <v>15000</v>
       </c>
       <c r="E221">
-        <v>12.055999999999999</v>
+        <v>2.7410000000000001</v>
       </c>
       <c r="F221">
         <v>19730</v>
@@ -15227,7 +15193,7 @@
         <v>100</v>
       </c>
       <c r="E222">
-        <v>3.4000000000000002E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -15247,7 +15213,7 @@
         <v>500</v>
       </c>
       <c r="E223">
-        <v>0.182</v>
+        <v>6.3E-2</v>
       </c>
       <c r="F223">
         <v>30</v>
@@ -15267,7 +15233,7 @@
         <v>1000</v>
       </c>
       <c r="E224">
-        <v>0.35299999999999998</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="F224">
         <v>93</v>
@@ -15287,7 +15253,7 @@
         <v>1500</v>
       </c>
       <c r="E225">
-        <v>0.66400000000000003</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="F225">
         <v>220</v>
@@ -15307,7 +15273,7 @@
         <v>2000</v>
       </c>
       <c r="E226">
-        <v>0.90600000000000003</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="F226">
         <v>390</v>
@@ -15327,7 +15293,7 @@
         <v>2500</v>
       </c>
       <c r="E227">
-        <v>1.1910000000000001</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="F227">
         <v>588</v>
@@ -15347,7 +15313,7 @@
         <v>3000</v>
       </c>
       <c r="E228">
-        <v>1.4179999999999999</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="F228">
         <v>851</v>
@@ -15367,7 +15333,7 @@
         <v>3500</v>
       </c>
       <c r="E229">
-        <v>1.7569999999999999</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="F229">
         <v>1080</v>
@@ -15387,7 +15353,7 @@
         <v>4000</v>
       </c>
       <c r="E230">
-        <v>1.8220000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="F230">
         <v>1371</v>
@@ -15407,7 +15373,7 @@
         <v>5000</v>
       </c>
       <c r="E231">
-        <v>2.3450000000000002</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="F231">
         <v>2210</v>
@@ -15427,7 +15393,7 @@
         <v>6000</v>
       </c>
       <c r="E232">
-        <v>2.802</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="F232">
         <v>3225</v>
@@ -15447,7 +15413,7 @@
         <v>7000</v>
       </c>
       <c r="E233">
-        <v>3.327</v>
+        <v>1.1240000000000001</v>
       </c>
       <c r="F233">
         <v>4188</v>
@@ -15467,7 +15433,7 @@
         <v>8000</v>
       </c>
       <c r="E234">
-        <v>4.4889999999999999</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="F234">
         <v>5500</v>
@@ -15487,7 +15453,7 @@
         <v>10000</v>
       </c>
       <c r="E235">
-        <v>5.9089999999999998</v>
+        <v>1.48</v>
       </c>
       <c r="F235">
         <v>8754</v>
@@ -15507,7 +15473,7 @@
         <v>12000</v>
       </c>
       <c r="E236">
-        <v>8.1240000000000006</v>
+        <v>1.6930000000000001</v>
       </c>
       <c r="F236">
         <v>12657</v>
@@ -15527,7 +15493,7 @@
         <v>15000</v>
       </c>
       <c r="E237">
-        <v>11.384</v>
+        <v>2.1890000000000001</v>
       </c>
       <c r="F237">
         <v>19730</v>

--- a/docs/report.xlsx
+++ b/docs/report.xlsx
@@ -685,7 +685,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1290,9 +1289,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1314,9 +1311,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1338,9 +1333,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1362,9 +1355,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1386,9 +1377,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1420,9 +1409,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1444,9 +1431,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1468,9 +1453,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1515,7 +1498,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1680,9 +1662,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1704,9 +1684,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1728,9 +1706,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1752,9 +1728,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1786,9 +1760,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1810,9 +1782,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1834,9 +1804,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1858,9 +1826,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1882,9 +1848,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1906,9 +1870,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1953,7 +1915,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2208,7 +2169,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2340,7 +2300,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2552,7 +2511,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3157,9 +3115,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3181,9 +3137,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3205,9 +3159,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3229,9 +3181,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3253,9 +3203,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3287,9 +3235,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3311,9 +3257,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3335,9 +3279,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3382,7 +3324,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3547,9 +3488,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3571,9 +3510,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3595,9 +3532,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3619,9 +3554,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3653,9 +3586,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3677,9 +3608,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3701,9 +3630,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3725,9 +3652,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3749,9 +3674,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3773,9 +3696,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3820,7 +3741,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4075,7 +3995,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4207,7 +4126,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4406,7 +4324,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4521,9 +4438,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-93BC-4033-9F9A-FD1B17CF6453}"/>
                 </c:ext>
@@ -4578,7 +4493,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4741,9 +4655,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-93BC-4033-9F9A-FD1B17CF6453}"/>
                 </c:ext>
@@ -4775,9 +4687,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-93BC-4033-9F9A-FD1B17CF6453}"/>
                 </c:ext>
@@ -4809,9 +4719,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-93BC-4033-9F9A-FD1B17CF6453}"/>
                 </c:ext>
@@ -4856,7 +4764,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5154,9 +5061,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-93BC-4033-9F9A-FD1B17CF6453}"/>
                 </c:ext>
@@ -5201,7 +5106,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5387,7 +5291,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5519,7 +5422,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5718,7 +5620,7 @@
             </a:br>
             <a:r>
               <a:rPr lang="hu-HU" baseline="0"/>
-              <a:t>for 100 to 15000 points</a:t>
+              <a:t>for 100 to 10000 points</a:t>
             </a:r>
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
@@ -5774,7 +5676,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Brute force</c:v>
+            <c:v>Naive</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6070,7 +5972,7 @@
           <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Octree</c:v>
+            <c:v>Octree (Create+Search)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6221,7 +6123,7 @@
           <c:idx val="0"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Octree (par)</c:v>
+            <c:v>Octree (Par. Create+Search)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6468,9 +6370,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-9AED-465E-B34D-BBC1C48444ED}"/>
                 </c:ext>
@@ -6492,9 +6392,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-9AED-465E-B34D-BBC1C48444ED}"/>
                 </c:ext>
@@ -6694,7 +6592,7 @@
         <c:axId val="373844184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="15000"/>
+          <c:max val="10000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6814,16 +6712,17 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="426270320"/>
-        <c:crossesAt val="1.0000000000000002E-2"/>
+        <c:crossesAt val="1.0000000000000002E-3"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="3000"/>
+        <c:majorUnit val="1000"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="426270320"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="1.0000000000000002E-2"/>
+          <c:max val="100"/>
+          <c:min val="1.0000000000000002E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6971,7 +6870,7 @@
           <c:x val="0.79791055555555557"/>
           <c:y val="0.37863717948717951"/>
           <c:w val="0.19327"/>
-          <c:h val="0.34362008547008549"/>
+          <c:h val="0.24592777777777777"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9660,8 +9559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S192" sqref="S192"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V230" sqref="V230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/docs/report.xlsx
+++ b/docs/report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="21">
   <si>
     <t>Diagonally placed points</t>
   </si>
@@ -60,16 +60,28 @@
     <t>Dynamic</t>
   </si>
   <si>
-    <t>Search: Cylindrical semi-random placed point NoPt/NoBox:10%</t>
+    <t>8D</t>
   </si>
   <si>
-    <t>Point range-search naive</t>
+    <t>Morton point</t>
   </si>
   <si>
-    <t>Point range-search by octree</t>
+    <t>Dynamic point</t>
   </si>
   <si>
-    <t>8D</t>
+    <t>Morton box</t>
+  </si>
+  <si>
+    <t>Dynamic box</t>
+  </si>
+  <si>
+    <t>Search: Cylindrical semi-random placed point NoPt/NoBox:100%</t>
+  </si>
+  <si>
+    <t>Box self conflict by brute force</t>
+  </si>
+  <si>
+    <t>Box self conflict by octree</t>
   </si>
 </sst>
 </file>
@@ -685,6 +697,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -812,40 +825,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>4.0000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0000000000000001E-3</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5E-2</c:v>
+                  <c:v>3.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13300000000000001</c:v>
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.22800000000000001</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.32500000000000001</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44400000000000001</c:v>
+                  <c:v>0.32100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.202</c:v>
+                  <c:v>3.1080000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.244999999999997</c:v>
+                  <c:v>30.571000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>426.07499999999999</c:v>
+                  <c:v>301.97399999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4240.45</c:v>
+                  <c:v>2999.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -941,40 +954,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>5.6000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.6000000000000002E-2</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14099999999999999</c:v>
+                  <c:v>8.6999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19800000000000001</c:v>
+                  <c:v>0.14299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.253</c:v>
+                  <c:v>0.17499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.633</c:v>
+                  <c:v>1.6379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.190999999999999</c:v>
+                  <c:v>14.784000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>237.65899999999999</c:v>
+                  <c:v>158.55099999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2568.14</c:v>
+                  <c:v>1595.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1071,37 +1084,37 @@
                   <c:v>4.0000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27900000000000003</c:v>
+                  <c:v>0.189</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46100000000000002</c:v>
+                  <c:v>0.32500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72099999999999997</c:v>
+                  <c:v>0.53700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2170000000000001</c:v>
+                  <c:v>0.94299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.245999999999999</c:v>
+                  <c:v>12.069000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103.843</c:v>
+                  <c:v>75.391999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>898.69100000000003</c:v>
+                  <c:v>653.99400000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9097.7000000000007</c:v>
+                  <c:v>6351.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1197,40 +1210,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2000000000000003E-2</c:v>
+                  <c:v>6.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.222</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29299999999999998</c:v>
+                  <c:v>0.215</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47099999999999997</c:v>
+                  <c:v>0.32200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.83599999999999997</c:v>
+                  <c:v>0.624</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.363</c:v>
+                  <c:v>6.8049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.262999999999998</c:v>
+                  <c:v>29.434999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>364.63799999999998</c:v>
+                  <c:v>207.69</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3821.03</c:v>
+                  <c:v>2328.5100000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1289,7 +1302,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1311,7 +1326,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1333,7 +1350,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1355,7 +1374,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1377,7 +1398,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1409,7 +1432,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1431,7 +1456,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1453,7 +1480,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1498,6 +1527,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1571,37 +1601,37 @@
                   <c:v>4.0000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1000000000000003E-2</c:v>
+                  <c:v>4.9000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24199999999999999</c:v>
+                  <c:v>0.157</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61299999999999999</c:v>
+                  <c:v>0.45500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82599999999999996</c:v>
+                  <c:v>0.63600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.012</c:v>
+                  <c:v>0.79100000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.148</c:v>
+                  <c:v>8.11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>83.525000000000006</c:v>
+                  <c:v>60.337000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>787.84500000000003</c:v>
+                  <c:v>574.625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8241.74</c:v>
+                  <c:v>5597.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1662,7 +1692,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1684,7 +1716,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1706,7 +1740,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1728,7 +1764,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1760,7 +1798,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1782,7 +1822,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1804,7 +1846,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1826,7 +1870,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1848,7 +1894,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1870,7 +1918,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-B19A-42FB-A80C-789D11B63562}"/>
                 </c:ext>
@@ -1915,6 +1965,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1985,40 +2036,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.09</c:v>
+                  <c:v>7.0999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20899999999999999</c:v>
+                  <c:v>0.128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48699999999999999</c:v>
+                  <c:v>0.35499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.624</c:v>
+                  <c:v>0.44500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.70299999999999996</c:v>
+                  <c:v>0.49399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.08</c:v>
+                  <c:v>3.907</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.17</c:v>
+                  <c:v>20.88</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>335.58</c:v>
+                  <c:v>191.32300000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3535.06</c:v>
+                  <c:v>2255.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2084,10 +2135,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0151299999999999E-3</c:v>
+                  <c:v>6.2748399999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10151.299999999999</c:v>
+                  <c:v>6274.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2169,6 +2220,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2300,6 +2352,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2511,6 +2564,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2638,40 +2692,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>4.0000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3000000000000004E-2</c:v>
+                  <c:v>6.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16500000000000001</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.252</c:v>
+                  <c:v>0.183</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33900000000000002</c:v>
+                  <c:v>0.24399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9289999999999998</c:v>
+                  <c:v>2.7170000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.110999999999997</c:v>
+                  <c:v>27.913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>423.52699999999999</c:v>
+                  <c:v>293.15499999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4565.07</c:v>
+                  <c:v>3308.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2767,40 +2821,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1E-2</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1999999999999998E-2</c:v>
+                  <c:v>3.6999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2000000000000003E-2</c:v>
+                  <c:v>5.3999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12</c:v>
+                  <c:v>7.1999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14699999999999999</c:v>
+                  <c:v>8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.829</c:v>
+                  <c:v>0.878</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.420000000000002</c:v>
+                  <c:v>9.1950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>194.28899999999999</c:v>
+                  <c:v>105.221</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2221.11</c:v>
+                  <c:v>1296.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2894,40 +2948,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>4.0000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13400000000000001</c:v>
+                  <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34300000000000003</c:v>
+                  <c:v>0.21299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65100000000000002</c:v>
+                  <c:v>0.44500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97299999999999998</c:v>
+                  <c:v>0.69499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1739999999999999</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.281000000000001</c:v>
+                  <c:v>8.8659999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>108.66800000000001</c:v>
+                  <c:v>84.188999999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1074.75</c:v>
+                  <c:v>783.197</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10151</c:v>
+                  <c:v>7906.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3023,40 +3077,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1999999999999998E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19400000000000001</c:v>
+                  <c:v>0.126</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34100000000000003</c:v>
+                  <c:v>0.222</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.498</c:v>
+                  <c:v>0.34399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.54100000000000004</c:v>
+                  <c:v>0.35099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5170000000000003</c:v>
+                  <c:v>3.4780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.316000000000003</c:v>
+                  <c:v>30.084</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>421.87799999999999</c:v>
+                  <c:v>246.65700000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4374.7</c:v>
+                  <c:v>2676.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3115,7 +3169,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3137,7 +3193,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3159,7 +3217,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3181,7 +3241,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3203,7 +3265,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3235,7 +3299,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3257,7 +3323,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3279,7 +3347,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3324,6 +3394,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3394,40 +3465,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>4.0000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.105</c:v>
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23300000000000001</c:v>
+                  <c:v>0.24399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65</c:v>
+                  <c:v>0.84699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88100000000000001</c:v>
+                  <c:v>1.129</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5730000000000004</c:v>
+                  <c:v>10.234</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>83.224999999999994</c:v>
+                  <c:v>90.564999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>833.63699999999994</c:v>
+                  <c:v>872.29399999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8363.59</c:v>
+                  <c:v>8672.1299999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3488,7 +3559,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3510,7 +3583,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3532,7 +3607,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3554,7 +3631,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3586,7 +3665,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3608,7 +3689,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3630,7 +3713,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3652,7 +3737,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3674,7 +3761,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3696,7 +3785,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-CF2F-4B92-BF82-37AF6163439F}"/>
                 </c:ext>
@@ -3741,6 +3832,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3811,40 +3903,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0999999999999999E-2</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.09</c:v>
+                  <c:v>7.1999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14899999999999999</c:v>
+                  <c:v>0.13800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26600000000000001</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36099999999999999</c:v>
+                  <c:v>0.41399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.49199999999999999</c:v>
+                  <c:v>0.61599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.359</c:v>
+                  <c:v>3.8050000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.543999999999997</c:v>
+                  <c:v>29.292999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>405.83100000000002</c:v>
+                  <c:v>265.666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4109.7700000000004</c:v>
+                  <c:v>2665.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3910,10 +4002,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.23986E-3</c:v>
+                  <c:v>8.4068999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12398.6</c:v>
+                  <c:v>8406.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3995,6 +4087,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4126,6 +4219,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4324,6 +4418,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4372,9 +4467,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Z order 3D</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -4438,7 +4530,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-93BC-4033-9F9A-FD1B17CF6453}"/>
                 </c:ext>
@@ -4493,6 +4587,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4513,7 +4608,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>report!$D$152:$D$163</c:f>
+              <c:f>report!$D$153:$D$164</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4558,7 +4653,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>report!$E$152:$E$163</c:f>
+              <c:f>report!$E$153:$E$164</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4566,37 +4661,37 @@
                   <c:v>4.0000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8E-2</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27600000000000002</c:v>
+                  <c:v>0.189</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45600000000000002</c:v>
+                  <c:v>0.32400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71799999999999997</c:v>
+                  <c:v>0.52700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1439999999999999</c:v>
+                  <c:v>0.90700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.903</c:v>
+                  <c:v>11.491</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>102.354</c:v>
+                  <c:v>74.332999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>892.05700000000002</c:v>
+                  <c:v>648.39300000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9059.41</c:v>
+                  <c:v>6394.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4611,9 +4706,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Typical 3D</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -4655,7 +4747,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-93BC-4033-9F9A-FD1B17CF6453}"/>
                 </c:ext>
@@ -4687,7 +4781,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-93BC-4033-9F9A-FD1B17CF6453}"/>
                 </c:ext>
@@ -4719,7 +4815,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-93BC-4033-9F9A-FD1B17CF6453}"/>
                 </c:ext>
@@ -4764,6 +4862,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4784,7 +4883,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>report!$D$176:$D$187</c:f>
+              <c:f>report!$D$177:$D$188</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4829,7 +4928,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>report!$E$176:$E$187</c:f>
+              <c:f>report!$E$177:$E$188</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4837,37 +4936,37 @@
                   <c:v>4.0000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.157</c:v>
+                  <c:v>8.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28699999999999998</c:v>
+                  <c:v>0.14599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75700000000000001</c:v>
+                  <c:v>0.501</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3280000000000001</c:v>
+                  <c:v>0.89400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6379999999999999</c:v>
+                  <c:v>1.1359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.545999999999999</c:v>
+                  <c:v>12.058</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>162.16900000000001</c:v>
+                  <c:v>93.125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1905.63</c:v>
+                  <c:v>1106.94</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22359.599999999999</c:v>
+                  <c:v>13473.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5061,7 +5160,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-93BC-4033-9F9A-FD1B17CF6453}"/>
                 </c:ext>
@@ -5106,6 +5207,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5291,6 +5393,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5422,6 +5525,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5613,14 +5717,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="hu-HU" baseline="0"/>
-              <a:t>Range search performance: Naive vs OctreePoint::RangeSearch and Create </a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="hu-HU" baseline="0"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="hu-HU" baseline="0"/>
-              <a:t>for 100 to 10000 points</a:t>
+              <a:t>Collision detection for 100 to 10000 points using OctreeBox</a:t>
             </a:r>
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
@@ -5664,9 +5761,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11581555555555556"/>
-          <c:y val="0.14702692307692308"/>
-          <c:w val="0.66369777777777794"/>
-          <c:h val="0.73247692307692303"/>
+          <c:y val="9.8180769230769224E-2"/>
+          <c:w val="0.68839222222222218"/>
+          <c:h val="0.7813230769230769"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5676,7 +5773,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Naive</c:v>
+            <c:v>Octree (unseq)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5709,7 +5806,9 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-9AED-465E-B34D-BBC1C48444ED}"/>
                 </c:ext>
@@ -5849,10 +5948,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>report!$D$190:$D$205</c:f>
+              <c:f>report!$D$240:$D$253</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -5894,69 +5993,57 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>report!$E$190:$E$205</c:f>
+              <c:f>report!$E$240:$E$253</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2E-3</c:v>
+                  <c:v>3.6999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.124</c:v>
+                  <c:v>0.28799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49099999999999999</c:v>
+                  <c:v>0.86499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1279999999999999</c:v>
+                  <c:v>1.5389999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9530000000000001</c:v>
+                  <c:v>2.403</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.052</c:v>
+                  <c:v>3.391</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2969999999999997</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7169999999999996</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.359</c:v>
+                  <c:v>6.633</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.513</c:v>
+                  <c:v>8.6769999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>10.805999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.497</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>16.407</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>22.385999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.466999999999999</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>45.542000000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>65.721999999999994</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>102.429</c:v>
+                  <c:v>23.131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5972,7 +6059,7 @@
           <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Octree (Create+Search)</c:v>
+            <c:v>Octree (par)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5998,12 +6085,167 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1620833333333332E-2"/>
+                  <c:y val="3.3900641025640929E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-8390-4BA3-A1EB-925EB66683EF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0129166666666667E-2"/>
+                  <c:y val="6.3751068376068379E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-8390-4BA3-A1EB-925EB66683EF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.7184722222222285E-2"/>
+                  <c:y val="6.3751068376068379E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-8390-4BA3-A1EB-925EB66683EF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.7184722222222223E-2"/>
+                  <c:y val="5.5610042735042733E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-8390-4BA3-A1EB-925EB66683EF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>report!$D$206:$D$221</c:f>
+              <c:f>report!$D$254:$D$267</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -6045,69 +6287,57 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>report!$E$206:$E$221</c:f>
+              <c:f>report!$E$254:$E$267</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>0.254</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13500000000000001</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.223</c:v>
+                  <c:v>0.75700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31900000000000001</c:v>
+                  <c:v>1.0309999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39900000000000002</c:v>
+                  <c:v>1.369</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53100000000000003</c:v>
+                  <c:v>1.6830000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.67300000000000004</c:v>
+                  <c:v>1.9870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79500000000000004</c:v>
+                  <c:v>2.262</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.96699999999999997</c:v>
+                  <c:v>2.8130000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.111</c:v>
+                  <c:v>3.3159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.274</c:v>
+                  <c:v>3.9239999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4390000000000001</c:v>
+                  <c:v>4.4770000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.77</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.0619999999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.7410000000000001</c:v>
+                  <c:v>6.1219999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6123,7 +6353,7 @@
           <c:idx val="0"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Octree (Par. Create+Search)</c:v>
+            <c:v>Naive</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6154,7 +6384,9 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-DBE6-43DE-910A-83DED8CCA67B}"/>
                 </c:ext>
@@ -6164,7 +6396,9 @@
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-DBE6-43DE-910A-83DED8CCA67B}"/>
                 </c:ext>
@@ -6228,7 +6462,9 @@
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-DBE6-43DE-910A-83DED8CCA67B}"/>
                 </c:ext>
@@ -6370,7 +6606,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-9AED-465E-B34D-BBC1C48444ED}"/>
                 </c:ext>
@@ -6392,7 +6630,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-9AED-465E-B34D-BBC1C48444ED}"/>
                 </c:ext>
@@ -6458,10 +6698,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>report!$D$222:$D$237</c:f>
+              <c:f>report!$D$226:$D$239</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -6503,69 +6743,57 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>report!$E$222:$E$237</c:f>
+              <c:f>report!$E$226:$E$239</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3E-2</c:v>
+                  <c:v>0.53600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13900000000000001</c:v>
+                  <c:v>2.4159999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20899999999999999</c:v>
+                  <c:v>5.7240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28299999999999997</c:v>
+                  <c:v>10.509</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34200000000000003</c:v>
+                  <c:v>16.861999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51800000000000002</c:v>
+                  <c:v>24.672999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.64800000000000002</c:v>
+                  <c:v>33.965000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75</c:v>
+                  <c:v>44.726999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.90400000000000003</c:v>
+                  <c:v>70.558000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0009999999999999</c:v>
+                  <c:v>102.512</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1240000000000001</c:v>
+                  <c:v>139.70400000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2330000000000001</c:v>
+                  <c:v>183.286</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6930000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.1890000000000001</c:v>
+                  <c:v>286.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6721,7 +6949,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="1000"/>
           <c:min val="1.0000000000000002E-3"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -9557,10 +9785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M237"/>
+  <dimension ref="A1:M267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V230" sqref="V230"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9583,7 +9811,7 @@
         <v>100000000</v>
       </c>
       <c r="E1">
-        <v>10107.4</v>
+        <v>4465.53</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -9593,7 +9821,7 @@
       </c>
       <c r="I1">
         <f>E1/D1*10</f>
-        <v>1.01074E-3</v>
+        <v>4.4655299999999998E-4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -9610,7 +9838,7 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -9633,7 +9861,7 @@
         <v>50</v>
       </c>
       <c r="E3">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F3">
         <v>16</v>
@@ -9656,7 +9884,7 @@
         <v>100</v>
       </c>
       <c r="E4">
-        <v>7.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -9679,7 +9907,7 @@
         <v>1000</v>
       </c>
       <c r="E5">
-        <v>5.5E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="F5">
         <v>66</v>
@@ -9702,7 +9930,7 @@
         <v>2500</v>
       </c>
       <c r="E6">
-        <v>0.13300000000000001</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F6">
         <v>66</v>
@@ -9725,7 +9953,7 @@
         <v>5000</v>
       </c>
       <c r="E7">
-        <v>0.22800000000000001</v>
+        <v>0.123</v>
       </c>
       <c r="F7">
         <v>66</v>
@@ -9748,7 +9976,7 @@
         <v>7500</v>
       </c>
       <c r="E8">
-        <v>0.32500000000000001</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="F8">
         <v>66</v>
@@ -9771,7 +9999,7 @@
         <v>10000</v>
       </c>
       <c r="E9">
-        <v>0.44400000000000001</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="F9">
         <v>66</v>
@@ -9794,7 +10022,7 @@
         <v>100000</v>
       </c>
       <c r="E10">
-        <v>4.202</v>
+        <v>3.1080000000000001</v>
       </c>
       <c r="F10">
         <v>66</v>
@@ -9817,7 +10045,7 @@
         <v>1000000</v>
       </c>
       <c r="E11">
-        <v>41.244999999999997</v>
+        <v>30.571000000000002</v>
       </c>
       <c r="F11">
         <v>66</v>
@@ -9840,7 +10068,7 @@
         <v>10000000</v>
       </c>
       <c r="E12">
-        <v>426.07499999999999</v>
+        <v>301.97399999999999</v>
       </c>
       <c r="F12">
         <v>66</v>
@@ -9854,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -9863,7 +10091,7 @@
         <v>100000000</v>
       </c>
       <c r="E13">
-        <v>4240.45</v>
+        <v>2999.02</v>
       </c>
       <c r="F13">
         <v>66</v>
@@ -9886,7 +10114,7 @@
         <v>10</v>
       </c>
       <c r="E14">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -9909,7 +10137,7 @@
         <v>50</v>
       </c>
       <c r="E15">
-        <v>8.9999999999999993E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F15">
         <v>16</v>
@@ -9932,7 +10160,7 @@
         <v>100</v>
       </c>
       <c r="E16">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F16">
         <v>30</v>
@@ -9955,7 +10183,7 @@
         <v>1000</v>
       </c>
       <c r="E17">
-        <v>5.6000000000000001E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F17">
         <v>66</v>
@@ -9978,7 +10206,7 @@
         <v>2500</v>
       </c>
       <c r="E18">
-        <v>9.6000000000000002E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="F18">
         <v>66</v>
@@ -10001,7 +10229,7 @@
         <v>5000</v>
       </c>
       <c r="E19">
-        <v>0.14099999999999999</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F19">
         <v>66</v>
@@ -10024,7 +10252,7 @@
         <v>7500</v>
       </c>
       <c r="E20">
-        <v>0.19800000000000001</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="F20">
         <v>66</v>
@@ -10047,7 +10275,7 @@
         <v>10000</v>
       </c>
       <c r="E21">
-        <v>0.253</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="F21">
         <v>66</v>
@@ -10070,7 +10298,7 @@
         <v>100000</v>
       </c>
       <c r="E22">
-        <v>2.633</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="F22">
         <v>66</v>
@@ -10093,7 +10321,7 @@
         <v>1000000</v>
       </c>
       <c r="E23">
-        <v>25.190999999999999</v>
+        <v>14.784000000000001</v>
       </c>
       <c r="F23">
         <v>66</v>
@@ -10116,7 +10344,7 @@
         <v>10000000</v>
       </c>
       <c r="E24">
-        <v>237.65899999999999</v>
+        <v>158.55099999999999</v>
       </c>
       <c r="F24">
         <v>66</v>
@@ -10130,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -10139,7 +10367,7 @@
         <v>100000000</v>
       </c>
       <c r="E25">
-        <v>2568.14</v>
+        <v>1595.2</v>
       </c>
       <c r="F25">
         <v>66</v>
@@ -10162,7 +10390,7 @@
         <v>100000000</v>
       </c>
       <c r="E26">
-        <v>6643.13</v>
+        <v>4623.18</v>
       </c>
       <c r="F26" t="s">
         <v>2</v>
@@ -10172,7 +10400,7 @@
       </c>
       <c r="I26">
         <f>E26/D26*10</f>
-        <v>6.6431299999999993E-4</v>
+        <v>4.6231799999999997E-4</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -10212,7 +10440,7 @@
         <v>50</v>
       </c>
       <c r="E28">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F28">
         <v>15</v>
@@ -10235,7 +10463,7 @@
         <v>100</v>
       </c>
       <c r="E29">
-        <v>5.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F29">
         <v>48</v>
@@ -10258,7 +10486,7 @@
         <v>1000</v>
       </c>
       <c r="E30">
-        <v>0.08</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F30">
         <v>473</v>
@@ -10281,7 +10509,7 @@
         <v>2500</v>
       </c>
       <c r="E31">
-        <v>0.27900000000000003</v>
+        <v>0.189</v>
       </c>
       <c r="F31">
         <v>611</v>
@@ -10304,7 +10532,7 @@
         <v>5000</v>
       </c>
       <c r="E32">
-        <v>0.46100000000000002</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F32">
         <v>1836</v>
@@ -10327,7 +10555,7 @@
         <v>7500</v>
       </c>
       <c r="E33">
-        <v>0.72099999999999997</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="F33">
         <v>3606</v>
@@ -10350,7 +10578,7 @@
         <v>10000</v>
       </c>
       <c r="E34">
-        <v>1.2170000000000001</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="F34">
         <v>4252</v>
@@ -10373,7 +10601,7 @@
         <v>100000</v>
       </c>
       <c r="E35">
-        <v>16.245999999999999</v>
+        <v>12.069000000000001</v>
       </c>
       <c r="F35">
         <v>35659</v>
@@ -10396,7 +10624,7 @@
         <v>1000000</v>
       </c>
       <c r="E36">
-        <v>103.843</v>
+        <v>75.391999999999996</v>
       </c>
       <c r="F36">
         <v>37449</v>
@@ -10419,7 +10647,7 @@
         <v>10000000</v>
       </c>
       <c r="E37">
-        <v>898.69100000000003</v>
+        <v>653.99400000000003</v>
       </c>
       <c r="F37">
         <v>37449</v>
@@ -10433,7 +10661,7 @@
         <v>5</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -10442,7 +10670,7 @@
         <v>100000000</v>
       </c>
       <c r="E38">
-        <v>9097.7000000000007</v>
+        <v>6351.08</v>
       </c>
       <c r="F38">
         <v>37449</v>
@@ -10465,7 +10693,7 @@
         <v>10</v>
       </c>
       <c r="E39">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -10511,7 +10739,7 @@
         <v>100</v>
       </c>
       <c r="E41">
-        <v>1.4E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F41">
         <v>48</v>
@@ -10534,7 +10762,7 @@
         <v>1000</v>
       </c>
       <c r="E42">
-        <v>8.2000000000000003E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="F42">
         <v>473</v>
@@ -10557,7 +10785,7 @@
         <v>2500</v>
       </c>
       <c r="E43">
-        <v>0.222</v>
+        <v>0.17</v>
       </c>
       <c r="F43">
         <v>611</v>
@@ -10580,7 +10808,7 @@
         <v>5000</v>
       </c>
       <c r="E44">
-        <v>0.29299999999999998</v>
+        <v>0.215</v>
       </c>
       <c r="F44">
         <v>1836</v>
@@ -10603,7 +10831,7 @@
         <v>7500</v>
       </c>
       <c r="E45">
-        <v>0.47099999999999997</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="F45">
         <v>3606</v>
@@ -10626,7 +10854,7 @@
         <v>10000</v>
       </c>
       <c r="E46">
-        <v>0.83599999999999997</v>
+        <v>0.624</v>
       </c>
       <c r="F46">
         <v>4252</v>
@@ -10649,7 +10877,7 @@
         <v>100000</v>
       </c>
       <c r="E47">
-        <v>11.363</v>
+        <v>6.8049999999999997</v>
       </c>
       <c r="F47">
         <v>35659</v>
@@ -10672,7 +10900,7 @@
         <v>1000000</v>
       </c>
       <c r="E48">
-        <v>50.262999999999998</v>
+        <v>29.434999999999999</v>
       </c>
       <c r="F48">
         <v>37449</v>
@@ -10695,7 +10923,7 @@
         <v>10000000</v>
       </c>
       <c r="E49">
-        <v>364.63799999999998</v>
+        <v>207.69</v>
       </c>
       <c r="F49">
         <v>37449</v>
@@ -10709,7 +10937,7 @@
         <v>5</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -10718,7 +10946,7 @@
         <v>100000000</v>
       </c>
       <c r="E50">
-        <v>3821.03</v>
+        <v>2328.5100000000002</v>
       </c>
       <c r="F50">
         <v>37449</v>
@@ -10741,7 +10969,7 @@
         <v>100000000</v>
       </c>
       <c r="E51">
-        <v>10151.299999999999</v>
+        <v>6274.84</v>
       </c>
       <c r="F51" t="s">
         <v>2</v>
@@ -10751,7 +10979,7 @@
       </c>
       <c r="I51">
         <f>E51/D51*10</f>
-        <v>1.0151299999999999E-3</v>
+        <v>6.2748399999999998E-4</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -10791,7 +11019,7 @@
         <v>50</v>
       </c>
       <c r="E53">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F53">
         <v>9</v>
@@ -10814,7 +11042,7 @@
         <v>100</v>
       </c>
       <c r="E54">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F54">
         <v>56</v>
@@ -10837,7 +11065,7 @@
         <v>1000</v>
       </c>
       <c r="E55">
-        <v>8.1000000000000003E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="F55">
         <v>315</v>
@@ -10860,7 +11088,7 @@
         <v>2500</v>
       </c>
       <c r="E56">
-        <v>0.24199999999999999</v>
+        <v>0.157</v>
       </c>
       <c r="F56">
         <v>1091</v>
@@ -10883,7 +11111,7 @@
         <v>5000</v>
       </c>
       <c r="E57">
-        <v>0.61299999999999999</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="F57">
         <v>1463</v>
@@ -10906,7 +11134,7 @@
         <v>7500</v>
       </c>
       <c r="E58">
-        <v>0.82599999999999996</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="F58">
         <v>2187</v>
@@ -10929,7 +11157,7 @@
         <v>10000</v>
       </c>
       <c r="E59">
-        <v>1.012</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="F59">
         <v>3592</v>
@@ -10952,7 +11180,7 @@
         <v>100000</v>
       </c>
       <c r="E60">
-        <v>11.148</v>
+        <v>8.11</v>
       </c>
       <c r="F60">
         <v>10943</v>
@@ -10975,7 +11203,7 @@
         <v>1000000</v>
       </c>
       <c r="E61">
-        <v>83.525000000000006</v>
+        <v>60.337000000000003</v>
       </c>
       <c r="F61">
         <v>12068</v>
@@ -10998,7 +11226,7 @@
         <v>10000000</v>
       </c>
       <c r="E62">
-        <v>787.84500000000003</v>
+        <v>574.625</v>
       </c>
       <c r="F62">
         <v>12174</v>
@@ -11012,7 +11240,7 @@
         <v>6</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
         <v>3</v>
@@ -11021,7 +11249,7 @@
         <v>100000000</v>
       </c>
       <c r="E63">
-        <v>8241.74</v>
+        <v>5597.35</v>
       </c>
       <c r="F63">
         <v>12174</v>
@@ -11044,7 +11272,7 @@
         <v>10</v>
       </c>
       <c r="E64">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -11067,7 +11295,7 @@
         <v>50</v>
       </c>
       <c r="E65">
-        <v>0.01</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F65">
         <v>9</v>
@@ -11090,7 +11318,7 @@
         <v>100</v>
       </c>
       <c r="E66">
-        <v>1.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F66">
         <v>56</v>
@@ -11113,7 +11341,7 @@
         <v>1000</v>
       </c>
       <c r="E67">
-        <v>0.09</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="F67">
         <v>315</v>
@@ -11136,7 +11364,7 @@
         <v>2500</v>
       </c>
       <c r="E68">
-        <v>0.20899999999999999</v>
+        <v>0.128</v>
       </c>
       <c r="F68">
         <v>1091</v>
@@ -11159,7 +11387,7 @@
         <v>5000</v>
       </c>
       <c r="E69">
-        <v>0.48699999999999999</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F69">
         <v>1463</v>
@@ -11182,7 +11410,7 @@
         <v>7500</v>
       </c>
       <c r="E70">
-        <v>0.624</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="F70">
         <v>2187</v>
@@ -11205,7 +11433,7 @@
         <v>10000</v>
       </c>
       <c r="E71">
-        <v>0.70299999999999996</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="F71">
         <v>3592</v>
@@ -11228,7 +11456,7 @@
         <v>100000</v>
       </c>
       <c r="E72">
-        <v>7.08</v>
+        <v>3.907</v>
       </c>
       <c r="F72">
         <v>10943</v>
@@ -11251,7 +11479,7 @@
         <v>1000000</v>
       </c>
       <c r="E73">
-        <v>39.17</v>
+        <v>20.88</v>
       </c>
       <c r="F73">
         <v>12068</v>
@@ -11274,7 +11502,7 @@
         <v>10000000</v>
       </c>
       <c r="E74">
-        <v>335.58</v>
+        <v>191.32300000000001</v>
       </c>
       <c r="F74">
         <v>12174</v>
@@ -11288,7 +11516,7 @@
         <v>6</v>
       </c>
       <c r="B75">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
@@ -11297,7 +11525,7 @@
         <v>100000000</v>
       </c>
       <c r="E75">
-        <v>3535.06</v>
+        <v>2255.17</v>
       </c>
       <c r="F75">
         <v>12174</v>
@@ -11320,7 +11548,7 @@
         <v>100000000</v>
       </c>
       <c r="E76">
-        <v>2191.48</v>
+        <v>1983.3</v>
       </c>
       <c r="F76" t="s">
         <v>2</v>
@@ -11330,7 +11558,7 @@
       </c>
       <c r="I76">
         <f>E76/D76*10</f>
-        <v>2.1914799999999998E-4</v>
+        <v>1.9832999999999998E-4</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -11347,7 +11575,7 @@
         <v>10</v>
       </c>
       <c r="E77">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -11370,7 +11598,7 @@
         <v>50</v>
       </c>
       <c r="E78">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F78">
         <v>9</v>
@@ -11393,7 +11621,7 @@
         <v>100</v>
       </c>
       <c r="E79">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F79">
         <v>9</v>
@@ -11416,7 +11644,7 @@
         <v>1000</v>
       </c>
       <c r="E80">
-        <v>3.5000000000000003E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F80">
         <v>9</v>
@@ -11439,7 +11667,7 @@
         <v>2500</v>
       </c>
       <c r="E81">
-        <v>8.3000000000000004E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F81">
         <v>9</v>
@@ -11462,7 +11690,7 @@
         <v>5000</v>
       </c>
       <c r="E82">
-        <v>0.16500000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="F82">
         <v>9</v>
@@ -11485,7 +11713,7 @@
         <v>7500</v>
       </c>
       <c r="E83">
-        <v>0.252</v>
+        <v>0.183</v>
       </c>
       <c r="F83">
         <v>9</v>
@@ -11508,7 +11736,7 @@
         <v>10000</v>
       </c>
       <c r="E84">
-        <v>0.33900000000000002</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="F84">
         <v>9</v>
@@ -11531,7 +11759,7 @@
         <v>100000</v>
       </c>
       <c r="E85">
-        <v>3.9289999999999998</v>
+        <v>2.7170000000000001</v>
       </c>
       <c r="F85">
         <v>9</v>
@@ -11554,7 +11782,7 @@
         <v>1000000</v>
       </c>
       <c r="E86">
-        <v>40.110999999999997</v>
+        <v>27.913</v>
       </c>
       <c r="F86">
         <v>9</v>
@@ -11577,7 +11805,7 @@
         <v>10000000</v>
       </c>
       <c r="E87">
-        <v>423.52699999999999</v>
+        <v>293.15499999999997</v>
       </c>
       <c r="F87">
         <v>12</v>
@@ -11591,7 +11819,7 @@
         <v>7</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
@@ -11600,7 +11828,7 @@
         <v>100000000</v>
       </c>
       <c r="E88">
-        <v>4565.07</v>
+        <v>3308.12</v>
       </c>
       <c r="F88">
         <v>51</v>
@@ -11623,7 +11851,7 @@
         <v>10</v>
       </c>
       <c r="E89">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -11646,7 +11874,7 @@
         <v>50</v>
       </c>
       <c r="E90">
-        <v>0.01</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F90">
         <v>9</v>
@@ -11669,7 +11897,7 @@
         <v>100</v>
       </c>
       <c r="E91">
-        <v>1.2E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F91">
         <v>9</v>
@@ -11692,7 +11920,7 @@
         <v>1000</v>
       </c>
       <c r="E92">
-        <v>3.1E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F92">
         <v>9</v>
@@ -11715,7 +11943,7 @@
         <v>2500</v>
       </c>
       <c r="E93">
-        <v>5.1999999999999998E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="F93">
         <v>9</v>
@@ -11738,7 +11966,7 @@
         <v>5000</v>
       </c>
       <c r="E94">
-        <v>8.2000000000000003E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F94">
         <v>9</v>
@@ -11761,7 +11989,7 @@
         <v>7500</v>
       </c>
       <c r="E95">
-        <v>0.12</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F95">
         <v>9</v>
@@ -11784,7 +12012,7 @@
         <v>10000</v>
       </c>
       <c r="E96">
-        <v>0.14699999999999999</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="F96">
         <v>9</v>
@@ -11807,7 +12035,7 @@
         <v>100000</v>
       </c>
       <c r="E97">
-        <v>1.829</v>
+        <v>0.878</v>
       </c>
       <c r="F97">
         <v>9</v>
@@ -11830,7 +12058,7 @@
         <v>1000000</v>
       </c>
       <c r="E98">
-        <v>17.420000000000002</v>
+        <v>9.1950000000000003</v>
       </c>
       <c r="F98">
         <v>9</v>
@@ -11853,7 +12081,7 @@
         <v>10000000</v>
       </c>
       <c r="E99">
-        <v>194.28899999999999</v>
+        <v>105.221</v>
       </c>
       <c r="F99">
         <v>12</v>
@@ -11867,7 +12095,7 @@
         <v>7</v>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -11876,7 +12104,7 @@
         <v>100000000</v>
       </c>
       <c r="E100">
-        <v>2221.11</v>
+        <v>1296.52</v>
       </c>
       <c r="F100">
         <v>51</v>
@@ -11899,7 +12127,7 @@
         <v>100000000</v>
       </c>
       <c r="E101">
-        <v>10794.6</v>
+        <v>6651.85</v>
       </c>
       <c r="F101" t="s">
         <v>2</v>
@@ -11909,7 +12137,7 @@
       </c>
       <c r="I101">
         <f>E101/D101*10</f>
-        <v>1.07946E-3</v>
+        <v>6.651850000000001E-4</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -11926,7 +12154,7 @@
         <v>10</v>
       </c>
       <c r="E102">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -11949,7 +12177,7 @@
         <v>50</v>
       </c>
       <c r="E103">
-        <v>6.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F103">
         <v>11</v>
@@ -11972,7 +12200,7 @@
         <v>100</v>
       </c>
       <c r="E104">
-        <v>8.9999999999999993E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F104">
         <v>34</v>
@@ -11995,7 +12223,7 @@
         <v>1000</v>
       </c>
       <c r="E105">
-        <v>0.13400000000000001</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="F105">
         <v>129</v>
@@ -12018,7 +12246,7 @@
         <v>2500</v>
       </c>
       <c r="E106">
-        <v>0.34300000000000003</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="F106">
         <v>244</v>
@@ -12041,7 +12269,7 @@
         <v>5000</v>
       </c>
       <c r="E107">
-        <v>0.65100000000000002</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="F107">
         <v>268</v>
@@ -12064,7 +12292,7 @@
         <v>7500</v>
       </c>
       <c r="E108">
-        <v>0.97299999999999998</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="F108">
         <v>311</v>
@@ -12087,7 +12315,7 @@
         <v>10000</v>
       </c>
       <c r="E109">
-        <v>1.1739999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F109">
         <v>377</v>
@@ -12110,7 +12338,7 @@
         <v>100000</v>
       </c>
       <c r="E110">
-        <v>12.281000000000001</v>
+        <v>8.8659999999999997</v>
       </c>
       <c r="F110">
         <v>1600</v>
@@ -12133,7 +12361,7 @@
         <v>1000000</v>
       </c>
       <c r="E111">
-        <v>108.66800000000001</v>
+        <v>84.188999999999993</v>
       </c>
       <c r="F111">
         <v>3474</v>
@@ -12156,7 +12384,7 @@
         <v>10000000</v>
       </c>
       <c r="E112">
-        <v>1074.75</v>
+        <v>783.197</v>
       </c>
       <c r="F112">
         <v>3493</v>
@@ -12170,7 +12398,7 @@
         <v>8</v>
       </c>
       <c r="B113">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C113" t="s">
         <v>3</v>
@@ -12179,7 +12407,7 @@
         <v>100000000</v>
       </c>
       <c r="E113">
-        <v>10151</v>
+        <v>7906.21</v>
       </c>
       <c r="F113">
         <v>3493</v>
@@ -12202,7 +12430,7 @@
         <v>10</v>
       </c>
       <c r="E114">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -12225,7 +12453,7 @@
         <v>50</v>
       </c>
       <c r="E115">
-        <v>1.4E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F115">
         <v>11</v>
@@ -12248,7 +12476,7 @@
         <v>100</v>
       </c>
       <c r="E116">
-        <v>1.7000000000000001E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F116">
         <v>34</v>
@@ -12271,7 +12499,7 @@
         <v>1000</v>
       </c>
       <c r="E117">
-        <v>9.1999999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F117">
         <v>129</v>
@@ -12294,7 +12522,7 @@
         <v>2500</v>
       </c>
       <c r="E118">
-        <v>0.19400000000000001</v>
+        <v>0.126</v>
       </c>
       <c r="F118">
         <v>244</v>
@@ -12317,7 +12545,7 @@
         <v>5000</v>
       </c>
       <c r="E119">
-        <v>0.34100000000000003</v>
+        <v>0.222</v>
       </c>
       <c r="F119">
         <v>268</v>
@@ -12340,7 +12568,7 @@
         <v>7500</v>
       </c>
       <c r="E120">
-        <v>0.498</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="F120">
         <v>311</v>
@@ -12363,7 +12591,7 @@
         <v>10000</v>
       </c>
       <c r="E121">
-        <v>0.54100000000000004</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="F121">
         <v>377</v>
@@ -12386,7 +12614,7 @@
         <v>100000</v>
       </c>
       <c r="E122">
-        <v>5.5170000000000003</v>
+        <v>3.4780000000000002</v>
       </c>
       <c r="F122">
         <v>1600</v>
@@ -12409,7 +12637,7 @@
         <v>1000000</v>
       </c>
       <c r="E123">
-        <v>48.316000000000003</v>
+        <v>30.084</v>
       </c>
       <c r="F123">
         <v>3474</v>
@@ -12432,7 +12660,7 @@
         <v>10000000</v>
       </c>
       <c r="E124">
-        <v>421.87799999999999</v>
+        <v>246.65700000000001</v>
       </c>
       <c r="F124">
         <v>3493</v>
@@ -12446,7 +12674,7 @@
         <v>8</v>
       </c>
       <c r="B125">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C125" t="s">
         <v>4</v>
@@ -12455,7 +12683,7 @@
         <v>100000000</v>
       </c>
       <c r="E125">
-        <v>4374.7</v>
+        <v>2676.13</v>
       </c>
       <c r="F125">
         <v>3493</v>
@@ -12478,7 +12706,7 @@
         <v>100000000</v>
       </c>
       <c r="E126">
-        <v>12398.6</v>
+        <v>8406.9</v>
       </c>
       <c r="F126" t="s">
         <v>2</v>
@@ -12488,7 +12716,7 @@
       </c>
       <c r="I126">
         <f>E126/D126*10</f>
-        <v>1.23986E-3</v>
+        <v>8.4068999999999995E-4</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -12505,7 +12733,7 @@
         <v>10</v>
       </c>
       <c r="E127">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -12528,7 +12756,7 @@
         <v>50</v>
       </c>
       <c r="E128">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F128">
         <v>10</v>
@@ -12551,7 +12779,7 @@
         <v>100</v>
       </c>
       <c r="E129">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F129">
         <v>19</v>
@@ -12574,7 +12802,7 @@
         <v>1000</v>
       </c>
       <c r="E130">
-        <v>0.105</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F130">
         <v>97</v>
@@ -12597,7 +12825,7 @@
         <v>2500</v>
       </c>
       <c r="E131">
-        <v>0.23300000000000001</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="F131">
         <v>161</v>
@@ -12620,7 +12848,7 @@
         <v>5000</v>
       </c>
       <c r="E132">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="F132">
         <v>198</v>
@@ -12643,7 +12871,7 @@
         <v>7500</v>
       </c>
       <c r="E133">
-        <v>0.65</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="F133">
         <v>236</v>
@@ -12666,7 +12894,7 @@
         <v>10000</v>
       </c>
       <c r="E134">
-        <v>0.88100000000000001</v>
+        <v>1.129</v>
       </c>
       <c r="F134">
         <v>299</v>
@@ -12689,7 +12917,7 @@
         <v>100000</v>
       </c>
       <c r="E135">
-        <v>8.5730000000000004</v>
+        <v>10.234</v>
       </c>
       <c r="F135">
         <v>1061</v>
@@ -12712,7 +12940,7 @@
         <v>1000000</v>
       </c>
       <c r="E136">
-        <v>83.224999999999994</v>
+        <v>90.564999999999998</v>
       </c>
       <c r="F136">
         <v>2245</v>
@@ -12735,7 +12963,7 @@
         <v>10000000</v>
       </c>
       <c r="E137">
-        <v>833.63699999999994</v>
+        <v>872.29399999999998</v>
       </c>
       <c r="F137">
         <v>2300</v>
@@ -12749,7 +12977,7 @@
         <v>9</v>
       </c>
       <c r="B138">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C138" t="s">
         <v>3</v>
@@ -12758,7 +12986,7 @@
         <v>100000000</v>
       </c>
       <c r="E138">
-        <v>8363.59</v>
+        <v>8672.1299999999992</v>
       </c>
       <c r="F138">
         <v>2307</v>
@@ -12781,7 +13009,7 @@
         <v>10</v>
       </c>
       <c r="E139">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -12804,7 +13032,7 @@
         <v>50</v>
       </c>
       <c r="E140">
-        <v>1.0999999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F140">
         <v>10</v>
@@ -12827,7 +13055,7 @@
         <v>100</v>
       </c>
       <c r="E141">
-        <v>1.7999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F141">
         <v>19</v>
@@ -12850,7 +13078,7 @@
         <v>1000</v>
       </c>
       <c r="E142">
-        <v>0.09</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F142">
         <v>97</v>
@@ -12873,7 +13101,7 @@
         <v>2500</v>
       </c>
       <c r="E143">
-        <v>0.14899999999999999</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="F143">
         <v>161</v>
@@ -12896,7 +13124,7 @@
         <v>5000</v>
       </c>
       <c r="E144">
-        <v>0.26600000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="F144">
         <v>198</v>
@@ -12919,7 +13147,7 @@
         <v>7500</v>
       </c>
       <c r="E145">
-        <v>0.36099999999999999</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="F145">
         <v>236</v>
@@ -12942,7 +13170,7 @@
         <v>10000</v>
       </c>
       <c r="E146">
-        <v>0.49199999999999999</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="F146">
         <v>299</v>
@@ -12965,7 +13193,7 @@
         <v>100000</v>
       </c>
       <c r="E147">
-        <v>4.359</v>
+        <v>3.8050000000000002</v>
       </c>
       <c r="F147">
         <v>1061</v>
@@ -12988,7 +13216,7 @@
         <v>1000000</v>
       </c>
       <c r="E148">
-        <v>42.543999999999997</v>
+        <v>29.292999999999999</v>
       </c>
       <c r="F148">
         <v>2245</v>
@@ -13011,7 +13239,7 @@
         <v>10000000</v>
       </c>
       <c r="E149">
-        <v>405.83100000000002</v>
+        <v>265.666</v>
       </c>
       <c r="F149">
         <v>2300</v>
@@ -13025,7 +13253,7 @@
         <v>9</v>
       </c>
       <c r="B150">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C150" t="s">
         <v>4</v>
@@ -13034,7 +13262,7 @@
         <v>100000000</v>
       </c>
       <c r="E150">
-        <v>4109.7700000000004</v>
+        <v>2665.24</v>
       </c>
       <c r="F150">
         <v>2307</v>
@@ -13043,7 +13271,7 @@
         <v>2</v>
       </c>
       <c r="H150" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
@@ -13060,7 +13288,7 @@
         <v>100000000</v>
       </c>
       <c r="E151">
-        <v>10021.700000000001</v>
+        <v>4848.33</v>
       </c>
       <c r="F151" t="s">
         <v>2</v>
@@ -13086,19 +13314,19 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B152">
-        <v>100000</v>
+        <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>3</v>
-      </c>
-      <c r="D152">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="D152" s="1">
+        <v>100000000</v>
       </c>
       <c r="E152">
-        <v>4.0000000000000002E-4</v>
+        <v>6500.8</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -13124,7 +13352,7 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B153">
         <v>100000</v>
@@ -13133,10 +13361,10 @@
         <v>3</v>
       </c>
       <c r="D153">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E153">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F153">
         <v>15</v>
@@ -13162,19 +13390,19 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B154">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C154" t="s">
         <v>3</v>
       </c>
       <c r="D154">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E154">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F154">
         <v>48</v>
@@ -13200,19 +13428,19 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B155">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="C155" t="s">
         <v>3</v>
       </c>
       <c r="D155">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E155">
-        <v>7.8E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F155">
         <v>473</v>
@@ -13238,19 +13466,19 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B156">
+        <v>2000</v>
+      </c>
+      <c r="C156" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156">
         <v>1000</v>
       </c>
-      <c r="C156" t="s">
-        <v>3</v>
-      </c>
-      <c r="D156">
-        <v>2500</v>
-      </c>
       <c r="E156">
-        <v>0.27600000000000002</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F156">
         <v>611</v>
@@ -13276,19 +13504,19 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B157">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C157" t="s">
         <v>3</v>
       </c>
       <c r="D157">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="E157">
-        <v>0.45600000000000002</v>
+        <v>0.189</v>
       </c>
       <c r="F157">
         <v>1836</v>
@@ -13314,7 +13542,7 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B158">
         <v>500</v>
@@ -13323,10 +13551,10 @@
         <v>3</v>
       </c>
       <c r="D158">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="E158">
-        <v>0.71799999999999997</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="F158">
         <v>3606</v>
@@ -13352,19 +13580,19 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B159">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C159" t="s">
         <v>3</v>
       </c>
       <c r="D159">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="E159">
-        <v>1.1439999999999999</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="F159">
         <v>4252</v>
@@ -13390,7 +13618,7 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B160">
         <v>100</v>
@@ -13399,10 +13627,10 @@
         <v>3</v>
       </c>
       <c r="D160">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E160">
-        <v>15.903</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="F160">
         <v>35659</v>
@@ -13428,19 +13656,19 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B161">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C161" t="s">
         <v>3</v>
       </c>
       <c r="D161">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="E161">
-        <v>102.354</v>
+        <v>11.491</v>
       </c>
       <c r="F161">
         <v>37449</v>
@@ -13466,7 +13694,7 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B162">
         <v>10</v>
@@ -13475,10 +13703,10 @@
         <v>3</v>
       </c>
       <c r="D162">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="E162">
-        <v>892.05700000000002</v>
+        <v>74.332999999999998</v>
       </c>
       <c r="F162">
         <v>37449</v>
@@ -13504,19 +13732,19 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B163">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C163" t="s">
         <v>3</v>
       </c>
       <c r="D163">
-        <v>100000000</v>
+        <v>10000000</v>
       </c>
       <c r="E163">
-        <v>9059.41</v>
+        <v>648.39300000000003</v>
       </c>
       <c r="F163">
         <v>37449</v>
@@ -13542,19 +13770,19 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B164">
-        <v>100000</v>
+        <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D164">
-        <v>10</v>
+        <v>100000000</v>
       </c>
       <c r="E164">
-        <v>2E-3</v>
+        <v>6394.17</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -13580,7 +13808,7 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B165">
         <v>100000</v>
@@ -13589,10 +13817,10 @@
         <v>4</v>
       </c>
       <c r="D165">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E165">
-        <v>8.0000000000000002E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F165">
         <v>15</v>
@@ -13618,19 +13846,19 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B166">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C166" t="s">
         <v>4</v>
       </c>
       <c r="D166">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E166">
-        <v>1.2E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F166">
         <v>48</v>
@@ -13656,19 +13884,19 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B167">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="C167" t="s">
         <v>4</v>
       </c>
       <c r="D167">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E167">
-        <v>0.08</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F167">
         <v>473</v>
@@ -13694,19 +13922,19 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B168">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C168" t="s">
         <v>4</v>
       </c>
       <c r="D168">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="E168">
-        <v>0.222</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F168">
         <v>611</v>
@@ -13732,19 +13960,19 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B169">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C169" t="s">
         <v>4</v>
       </c>
       <c r="D169">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="E169">
-        <v>0.29399999999999998</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="F169">
         <v>1836</v>
@@ -13770,7 +13998,7 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B170">
         <v>500</v>
@@ -13779,10 +14007,10 @@
         <v>4</v>
       </c>
       <c r="D170">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="E170">
-        <v>0.47699999999999998</v>
+        <v>0.214</v>
       </c>
       <c r="F170">
         <v>3606</v>
@@ -13808,19 +14036,19 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B171">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C171" t="s">
         <v>4</v>
       </c>
       <c r="D171">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="E171">
-        <v>0.83899999999999997</v>
+        <v>0.316</v>
       </c>
       <c r="F171">
         <v>4252</v>
@@ -13846,7 +14074,7 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B172">
         <v>100</v>
@@ -13855,10 +14083,10 @@
         <v>4</v>
       </c>
       <c r="D172">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E172">
-        <v>11.367000000000001</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="F172">
         <v>35659</v>
@@ -13884,19 +14112,19 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B173">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C173" t="s">
         <v>4</v>
       </c>
       <c r="D173">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="E173">
-        <v>50.804000000000002</v>
+        <v>6.8010000000000002</v>
       </c>
       <c r="F173">
         <v>37449</v>
@@ -13922,7 +14150,7 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B174">
         <v>10</v>
@@ -13931,10 +14159,10 @@
         <v>4</v>
       </c>
       <c r="D174">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="E174">
-        <v>364.69099999999997</v>
+        <v>28.657</v>
       </c>
       <c r="F174">
         <v>37449</v>
@@ -13960,19 +14188,19 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B175">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C175" t="s">
         <v>4</v>
       </c>
       <c r="D175">
-        <v>100000000</v>
+        <v>10000000</v>
       </c>
       <c r="E175">
-        <v>3822.97</v>
+        <v>206.88200000000001</v>
       </c>
       <c r="F175">
         <v>37449</v>
@@ -13998,19 +14226,19 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B176">
-        <v>100000</v>
+        <v>2</v>
       </c>
       <c r="C176" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D176">
-        <v>10</v>
+        <v>100000000</v>
       </c>
       <c r="E176">
-        <v>4.0000000000000002E-4</v>
+        <v>2380.4699999999998</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -14036,7 +14264,7 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B177">
         <v>100000</v>
@@ -14045,10 +14273,10 @@
         <v>3</v>
       </c>
       <c r="D177">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E177">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F177">
         <v>8</v>
@@ -14074,19 +14302,19 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B178">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C178" t="s">
         <v>3</v>
       </c>
       <c r="D178">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E178">
-        <v>0.01</v>
+        <v>2E-3</v>
       </c>
       <c r="F178">
         <v>8</v>
@@ -14112,19 +14340,19 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B179">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="C179" t="s">
         <v>3</v>
       </c>
       <c r="D179">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E179">
-        <v>0.157</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F179">
         <v>8</v>
@@ -14150,19 +14378,19 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B180">
+        <v>2000</v>
+      </c>
+      <c r="C180" t="s">
+        <v>3</v>
+      </c>
+      <c r="D180">
         <v>1000</v>
       </c>
-      <c r="C180" t="s">
-        <v>3</v>
-      </c>
-      <c r="D180">
-        <v>2500</v>
-      </c>
       <c r="E180">
-        <v>0.28699999999999998</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F180">
         <v>8</v>
@@ -14188,19 +14416,19 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B181">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C181" t="s">
         <v>3</v>
       </c>
       <c r="D181">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="E181">
-        <v>0.75700000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="F181">
         <v>8</v>
@@ -14226,7 +14454,7 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B182">
         <v>500</v>
@@ -14235,10 +14463,10 @@
         <v>3</v>
       </c>
       <c r="D182">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="E182">
-        <v>1.3280000000000001</v>
+        <v>0.501</v>
       </c>
       <c r="F182">
         <v>8</v>
@@ -14264,19 +14492,19 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B183">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C183" t="s">
         <v>3</v>
       </c>
       <c r="D183">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="E183">
-        <v>1.6379999999999999</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="F183">
         <v>8</v>
@@ -14302,7 +14530,7 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B184">
         <v>100</v>
@@ -14311,10 +14539,10 @@
         <v>3</v>
       </c>
       <c r="D184">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E184">
-        <v>18.545999999999999</v>
+        <v>1.1359999999999999</v>
       </c>
       <c r="F184">
         <v>8</v>
@@ -14340,19 +14568,19 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B185">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C185" t="s">
         <v>3</v>
       </c>
       <c r="D185">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="E185">
-        <v>162.16900000000001</v>
+        <v>12.058</v>
       </c>
       <c r="F185">
         <v>8</v>
@@ -14360,7 +14588,7 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B186">
         <v>10</v>
@@ -14369,10 +14597,10 @@
         <v>3</v>
       </c>
       <c r="D186">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="E186">
-        <v>1905.63</v>
+        <v>93.125</v>
       </c>
       <c r="F186">
         <v>8</v>
@@ -14380,19 +14608,19 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B187">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C187" t="s">
         <v>3</v>
       </c>
       <c r="D187">
-        <v>100000000</v>
+        <v>10000000</v>
       </c>
       <c r="E187">
-        <v>22359.599999999999</v>
+        <v>1106.94</v>
       </c>
       <c r="F187">
         <v>8</v>
@@ -14400,19 +14628,19 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>1</v>
-      </c>
-      <c r="D188" s="1">
-        <v>1000000000000</v>
+        <v>3</v>
+      </c>
+      <c r="D188">
+        <v>100000000</v>
       </c>
       <c r="E188">
-        <v>97.427000000000007</v>
+        <v>13473.3</v>
       </c>
       <c r="F188" t="s">
         <v>2</v>
@@ -14420,19 +14648,19 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>100000</v>
       </c>
       <c r="C189" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D189">
-        <v>100000</v>
+        <v>10</v>
       </c>
       <c r="E189">
-        <v>12.855</v>
+        <v>0</v>
       </c>
       <c r="F189" t="s">
         <v>2</v>
@@ -14440,7 +14668,7 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B190">
         <v>100000</v>
@@ -14449,10 +14677,10 @@
         <v>3</v>
       </c>
       <c r="D190">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E190">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -14460,19 +14688,19 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B191">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C191" t="s">
         <v>3</v>
       </c>
       <c r="D191">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E191">
-        <v>0.124</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F191">
         <v>30</v>
@@ -14480,10 +14708,10 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B192">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="C192" t="s">
         <v>3</v>
@@ -14492,7 +14720,7 @@
         <v>1000</v>
       </c>
       <c r="E192">
-        <v>0.49099999999999999</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="F192">
         <v>93</v>
@@ -14500,19 +14728,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B193">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C193" t="s">
         <v>3</v>
       </c>
       <c r="D193">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E193">
-        <v>1.1279999999999999</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F193">
         <v>220</v>
@@ -14520,19 +14748,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B194">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="C194" t="s">
         <v>3</v>
       </c>
       <c r="D194">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="E194">
-        <v>1.9530000000000001</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="F194">
         <v>390</v>
@@ -14540,19 +14768,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B195">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C195" t="s">
         <v>3</v>
       </c>
       <c r="D195">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="E195">
-        <v>3.052</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="F195">
         <v>588</v>
@@ -14560,19 +14788,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B196">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C196" t="s">
         <v>3</v>
       </c>
       <c r="D196">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="E196">
-        <v>4.2969999999999997</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="F196">
         <v>851</v>
@@ -14580,19 +14808,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B197">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C197" t="s">
         <v>3</v>
       </c>
       <c r="D197">
-        <v>3500</v>
+        <v>100000</v>
       </c>
       <c r="E197">
-        <v>5.7169999999999996</v>
+        <v>8.8849999999999998</v>
       </c>
       <c r="F197">
         <v>1080</v>
@@ -14600,19 +14828,19 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B198">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="C198" t="s">
         <v>3</v>
       </c>
       <c r="D198">
-        <v>4000</v>
+        <v>1000000</v>
       </c>
       <c r="E198">
-        <v>7.359</v>
+        <v>84.283000000000001</v>
       </c>
       <c r="F198">
         <v>1371</v>
@@ -14620,19 +14848,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B199">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="C199" t="s">
         <v>3</v>
       </c>
       <c r="D199">
-        <v>5000</v>
+        <v>10000000</v>
       </c>
       <c r="E199">
-        <v>11.513</v>
+        <v>785.20600000000002</v>
       </c>
       <c r="F199">
         <v>2212</v>
@@ -14640,19 +14868,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B200">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="C200" t="s">
         <v>3</v>
       </c>
       <c r="D200">
-        <v>6000</v>
+        <v>100000000</v>
       </c>
       <c r="E200">
-        <v>16.407</v>
+        <v>7903.49</v>
       </c>
       <c r="F200">
         <v>3230</v>
@@ -14660,19 +14888,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B201">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="C201" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D201">
-        <v>7000</v>
+        <v>10</v>
       </c>
       <c r="E201">
-        <v>22.385999999999999</v>
+        <v>1E-3</v>
       </c>
       <c r="F201">
         <v>4193</v>
@@ -14680,19 +14908,19 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B202">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="C202" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D202">
-        <v>8000</v>
+        <v>50</v>
       </c>
       <c r="E202">
-        <v>29.466999999999999</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F202">
         <v>5505</v>
@@ -14700,19 +14928,19 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B203">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C203" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D203">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E203">
-        <v>45.542000000000002</v>
+        <v>0.01</v>
       </c>
       <c r="F203">
         <v>8761</v>
@@ -14720,19 +14948,19 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B204">
+        <v>2000</v>
+      </c>
+      <c r="C204" t="s">
+        <v>4</v>
+      </c>
+      <c r="D204">
         <v>1000</v>
       </c>
-      <c r="C204" t="s">
-        <v>3</v>
-      </c>
-      <c r="D204">
-        <v>12000</v>
-      </c>
       <c r="E204">
-        <v>65.721999999999994</v>
+        <v>0.05</v>
       </c>
       <c r="F204">
         <v>12664</v>
@@ -14740,19 +14968,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B205">
         <v>1000</v>
       </c>
       <c r="C205" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D205">
-        <v>15000</v>
+        <v>2500</v>
       </c>
       <c r="E205">
-        <v>102.429</v>
+        <v>0.127</v>
       </c>
       <c r="F205">
         <v>19738</v>
@@ -14760,19 +14988,19 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B206">
-        <v>100000</v>
+        <v>500</v>
       </c>
       <c r="C206" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D206">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="E206">
-        <v>5.0000000000000001E-3</v>
+        <v>0.223</v>
       </c>
       <c r="F206">
         <v>1</v>
@@ -14780,19 +15008,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B207">
-        <v>100000</v>
+        <v>500</v>
       </c>
       <c r="C207" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D207">
-        <v>500</v>
+        <v>7500</v>
       </c>
       <c r="E207">
-        <v>4.8000000000000001E-2</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="F207">
         <v>30</v>
@@ -14800,19 +15028,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B208">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="C208" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D208">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="E208">
-        <v>0.13500000000000001</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="F208">
         <v>93</v>
@@ -14820,19 +15048,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B209">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C209" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D209">
-        <v>1500</v>
+        <v>100000</v>
       </c>
       <c r="E209">
-        <v>0.223</v>
+        <v>3.5470000000000002</v>
       </c>
       <c r="F209">
         <v>220</v>
@@ -14840,19 +15068,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B210">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="C210" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D210">
-        <v>2000</v>
+        <v>1000000</v>
       </c>
       <c r="E210">
-        <v>0.31900000000000001</v>
+        <v>29.695</v>
       </c>
       <c r="F210">
         <v>390</v>
@@ -14860,19 +15088,19 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B211">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="C211" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D211">
-        <v>2500</v>
+        <v>10000000</v>
       </c>
       <c r="E211">
-        <v>0.39900000000000002</v>
+        <v>250.864</v>
       </c>
       <c r="F211">
         <v>588</v>
@@ -14880,19 +15108,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B212">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="C212" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D212">
-        <v>3000</v>
+        <v>100000000</v>
       </c>
       <c r="E212">
-        <v>0.53100000000000003</v>
+        <v>2730.17</v>
       </c>
       <c r="F212">
         <v>851</v>
@@ -14900,19 +15128,19 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B213">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="C213" t="s">
         <v>3</v>
       </c>
       <c r="D213">
-        <v>3500</v>
+        <v>10</v>
       </c>
       <c r="E213">
-        <v>0.67300000000000004</v>
+        <v>0</v>
       </c>
       <c r="F213">
         <v>1080</v>
@@ -14920,19 +15148,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B214">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="C214" t="s">
         <v>3</v>
       </c>
       <c r="D214">
-        <v>4000</v>
+        <v>50</v>
       </c>
       <c r="E214">
-        <v>0.79500000000000004</v>
+        <v>1E-3</v>
       </c>
       <c r="F214">
         <v>1371</v>
@@ -14940,19 +15168,19 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B215">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C215" t="s">
         <v>3</v>
       </c>
       <c r="D215">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="E215">
-        <v>0.96699999999999997</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F215">
         <v>2210</v>
@@ -14960,19 +15188,19 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B216">
+        <v>2000</v>
+      </c>
+      <c r="C216" t="s">
+        <v>3</v>
+      </c>
+      <c r="D216">
         <v>1000</v>
       </c>
-      <c r="C216" t="s">
-        <v>3</v>
-      </c>
-      <c r="D216">
-        <v>6000</v>
-      </c>
       <c r="E216">
-        <v>1.111</v>
+        <v>0.04</v>
       </c>
       <c r="F216">
         <v>3225</v>
@@ -14980,7 +15208,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B217">
         <v>1000</v>
@@ -14989,10 +15217,10 @@
         <v>3</v>
       </c>
       <c r="D217">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="E217">
-        <v>1.274</v>
+        <v>0.112</v>
       </c>
       <c r="F217">
         <v>4188</v>
@@ -15000,19 +15228,19 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B218">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C218" t="s">
         <v>3</v>
       </c>
       <c r="D218">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="E218">
-        <v>1.4390000000000001</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="F218">
         <v>5500</v>
@@ -15020,19 +15248,19 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B219">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C219" t="s">
         <v>3</v>
       </c>
       <c r="D219">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="E219">
-        <v>1.77</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="F219">
         <v>8754</v>
@@ -15040,19 +15268,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B220">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C220" t="s">
         <v>3</v>
       </c>
       <c r="D220">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="E220">
-        <v>2.0619999999999998</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="F220">
         <v>12657</v>
@@ -15060,19 +15288,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B221">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C221" t="s">
         <v>3</v>
       </c>
       <c r="D221">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="E221">
-        <v>2.7410000000000001</v>
+        <v>5.5860000000000003</v>
       </c>
       <c r="F221">
         <v>19730</v>
@@ -15080,19 +15308,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B222">
-        <v>100000</v>
+        <v>10</v>
       </c>
       <c r="C222" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D222">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="E222">
-        <v>1.4999999999999999E-2</v>
+        <v>76.27</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -15100,19 +15328,19 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B223">
-        <v>100000</v>
+        <v>10</v>
       </c>
       <c r="C223" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D223">
-        <v>500</v>
+        <v>10000000</v>
       </c>
       <c r="E223">
-        <v>6.3E-2</v>
+        <v>819.03399999999999</v>
       </c>
       <c r="F223">
         <v>30</v>
@@ -15120,19 +15348,19 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B224">
-        <v>100000</v>
+        <v>2</v>
       </c>
       <c r="C224" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D224">
-        <v>1000</v>
+        <v>100000000</v>
       </c>
       <c r="E224">
-        <v>0.13900000000000001</v>
+        <v>8992.6</v>
       </c>
       <c r="F224">
         <v>93</v>
@@ -15140,19 +15368,19 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B225">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>4</v>
-      </c>
-      <c r="D225">
-        <v>1500</v>
+        <v>1</v>
+      </c>
+      <c r="D225" s="1">
+        <v>10000000000</v>
       </c>
       <c r="E225">
-        <v>0.20899999999999999</v>
+        <v>1.109</v>
       </c>
       <c r="F225">
         <v>220</v>
@@ -15160,242 +15388,842 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B226">
         <v>10000</v>
       </c>
       <c r="C226" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D226">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="E226">
-        <v>0.28299999999999997</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F226">
-        <v>390</v>
+        <v>105</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B227">
         <v>1000</v>
       </c>
       <c r="C227" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D227">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="E227">
-        <v>0.34200000000000003</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="F227">
-        <v>588</v>
+        <v>617</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B228">
         <v>1000</v>
       </c>
       <c r="C228" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D228">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="E228">
-        <v>0.51800000000000002</v>
+        <v>2.4159999999999999</v>
       </c>
       <c r="F228">
-        <v>851</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B229">
         <v>1000</v>
       </c>
       <c r="C229" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D229">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="E229">
-        <v>0.64800000000000002</v>
+        <v>5.7240000000000002</v>
       </c>
       <c r="F229">
-        <v>1080</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B230">
         <v>1000</v>
       </c>
       <c r="C230" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D230">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="E230">
-        <v>0.75</v>
+        <v>10.509</v>
       </c>
       <c r="F230">
-        <v>1371</v>
+        <v>4179</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B231">
         <v>1000</v>
       </c>
       <c r="C231" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D231">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="E231">
-        <v>0.90400000000000003</v>
+        <v>16.861999999999998</v>
       </c>
       <c r="F231">
-        <v>2210</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B232">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C232" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D232">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="E232">
-        <v>1.0009999999999999</v>
+        <v>24.672999999999998</v>
       </c>
       <c r="F232">
-        <v>3225</v>
+        <v>8075</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B233">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C233" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D233">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="E233">
-        <v>1.1240000000000001</v>
+        <v>33.965000000000003</v>
       </c>
       <c r="F233">
-        <v>4188</v>
+        <v>10554</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B234">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C234" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D234">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="E234">
-        <v>1.2330000000000001</v>
+        <v>44.726999999999997</v>
       </c>
       <c r="F234">
-        <v>5500</v>
+        <v>13285</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B235">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C235" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D235">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E235">
-        <v>1.48</v>
+        <v>70.558000000000007</v>
       </c>
       <c r="F235">
-        <v>8754</v>
+        <v>19374</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B236">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C236" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D236">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="E236">
-        <v>1.6930000000000001</v>
+        <v>102.512</v>
       </c>
       <c r="F236">
-        <v>12657</v>
+        <v>26769</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B237">
+        <v>100</v>
+      </c>
+      <c r="C237" t="s">
+        <v>3</v>
+      </c>
+      <c r="D237">
+        <v>7000</v>
+      </c>
+      <c r="E237">
+        <v>139.70400000000001</v>
+      </c>
+      <c r="F237">
+        <v>35258</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>19</v>
+      </c>
+      <c r="B238">
+        <v>100</v>
+      </c>
+      <c r="C238" t="s">
+        <v>3</v>
+      </c>
+      <c r="D238">
+        <v>8000</v>
+      </c>
+      <c r="E238">
+        <v>183.286</v>
+      </c>
+      <c r="F238">
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>19</v>
+      </c>
+      <c r="B239">
+        <v>100</v>
+      </c>
+      <c r="C239" t="s">
+        <v>3</v>
+      </c>
+      <c r="D239">
+        <v>10000</v>
+      </c>
+      <c r="E239">
+        <v>286.2</v>
+      </c>
+      <c r="F239">
+        <v>67944</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>20</v>
+      </c>
+      <c r="B240">
+        <v>10000</v>
+      </c>
+      <c r="C240" t="s">
+        <v>3</v>
+      </c>
+      <c r="D240">
+        <v>100</v>
+      </c>
+      <c r="E240">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F240">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>20</v>
+      </c>
+      <c r="B241">
         <v>1000</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C241" t="s">
+        <v>3</v>
+      </c>
+      <c r="D241">
+        <v>500</v>
+      </c>
+      <c r="E241">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F241">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>20</v>
+      </c>
+      <c r="B242">
+        <v>1000</v>
+      </c>
+      <c r="C242" t="s">
+        <v>3</v>
+      </c>
+      <c r="D242">
+        <v>1000</v>
+      </c>
+      <c r="E242">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="F242">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>20</v>
+      </c>
+      <c r="B243">
+        <v>1000</v>
+      </c>
+      <c r="C243" t="s">
+        <v>3</v>
+      </c>
+      <c r="D243">
+        <v>1500</v>
+      </c>
+      <c r="E243">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="F243">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>20</v>
+      </c>
+      <c r="B244">
+        <v>1000</v>
+      </c>
+      <c r="C244" t="s">
+        <v>3</v>
+      </c>
+      <c r="D244">
+        <v>2000</v>
+      </c>
+      <c r="E244">
+        <v>2.403</v>
+      </c>
+      <c r="F244">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>20</v>
+      </c>
+      <c r="B245">
+        <v>1000</v>
+      </c>
+      <c r="C245" t="s">
+        <v>3</v>
+      </c>
+      <c r="D245">
+        <v>2500</v>
+      </c>
+      <c r="E245">
+        <v>3.391</v>
+      </c>
+      <c r="F245">
+        <v>5981</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>20</v>
+      </c>
+      <c r="B246">
+        <v>100</v>
+      </c>
+      <c r="C246" t="s">
+        <v>3</v>
+      </c>
+      <c r="D246">
+        <v>3000</v>
+      </c>
+      <c r="E246">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F246">
+        <v>8077</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>20</v>
+      </c>
+      <c r="B247">
+        <v>100</v>
+      </c>
+      <c r="C247" t="s">
+        <v>3</v>
+      </c>
+      <c r="D247">
+        <v>3500</v>
+      </c>
+      <c r="E247">
+        <v>5.5</v>
+      </c>
+      <c r="F247">
+        <v>10556</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>20</v>
+      </c>
+      <c r="B248">
+        <v>100</v>
+      </c>
+      <c r="C248" t="s">
+        <v>3</v>
+      </c>
+      <c r="D248">
+        <v>4000</v>
+      </c>
+      <c r="E248">
+        <v>6.633</v>
+      </c>
+      <c r="F248">
+        <v>13288</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>20</v>
+      </c>
+      <c r="B249">
+        <v>100</v>
+      </c>
+      <c r="C249" t="s">
+        <v>3</v>
+      </c>
+      <c r="D249">
+        <v>5000</v>
+      </c>
+      <c r="E249">
+        <v>8.6769999999999996</v>
+      </c>
+      <c r="F249">
+        <v>19380</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>20</v>
+      </c>
+      <c r="B250">
+        <v>100</v>
+      </c>
+      <c r="C250" t="s">
+        <v>3</v>
+      </c>
+      <c r="D250">
+        <v>6000</v>
+      </c>
+      <c r="E250">
+        <v>10.805999999999999</v>
+      </c>
+      <c r="F250">
+        <v>26785</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>20</v>
+      </c>
+      <c r="B251">
+        <v>100</v>
+      </c>
+      <c r="C251" t="s">
+        <v>3</v>
+      </c>
+      <c r="D251">
+        <v>7000</v>
+      </c>
+      <c r="E251">
+        <v>13.497</v>
+      </c>
+      <c r="F251">
+        <v>35282</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>20</v>
+      </c>
+      <c r="B252">
+        <v>100</v>
+      </c>
+      <c r="C252" t="s">
+        <v>3</v>
+      </c>
+      <c r="D252">
+        <v>8000</v>
+      </c>
+      <c r="E252">
+        <v>16.407</v>
+      </c>
+      <c r="F252">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>20</v>
+      </c>
+      <c r="B253">
+        <v>100</v>
+      </c>
+      <c r="C253" t="s">
+        <v>3</v>
+      </c>
+      <c r="D253">
+        <v>10000</v>
+      </c>
+      <c r="E253">
+        <v>23.131</v>
+      </c>
+      <c r="F253">
+        <v>67994</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>20</v>
+      </c>
+      <c r="B254">
+        <v>10000</v>
+      </c>
+      <c r="C254" t="s">
         <v>4</v>
       </c>
-      <c r="D237">
-        <v>15000</v>
-      </c>
-      <c r="E237">
-        <v>2.1890000000000001</v>
-      </c>
-      <c r="F237">
-        <v>19730</v>
+      <c r="D254">
+        <v>100</v>
+      </c>
+      <c r="E254">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F254">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>20</v>
+      </c>
+      <c r="B255">
+        <v>1000</v>
+      </c>
+      <c r="C255" t="s">
+        <v>4</v>
+      </c>
+      <c r="D255">
+        <v>500</v>
+      </c>
+      <c r="E255">
+        <v>0.254</v>
+      </c>
+      <c r="F255">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>20</v>
+      </c>
+      <c r="B256">
+        <v>1000</v>
+      </c>
+      <c r="C256" t="s">
+        <v>4</v>
+      </c>
+      <c r="D256">
+        <v>1000</v>
+      </c>
+      <c r="E256">
+        <v>0.5</v>
+      </c>
+      <c r="F256">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>20</v>
+      </c>
+      <c r="B257">
+        <v>1000</v>
+      </c>
+      <c r="C257" t="s">
+        <v>4</v>
+      </c>
+      <c r="D257">
+        <v>1500</v>
+      </c>
+      <c r="E257">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="F257">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>20</v>
+      </c>
+      <c r="B258">
+        <v>1000</v>
+      </c>
+      <c r="C258" t="s">
+        <v>4</v>
+      </c>
+      <c r="D258">
+        <v>2000</v>
+      </c>
+      <c r="E258">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="F258">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>20</v>
+      </c>
+      <c r="B259">
+        <v>1000</v>
+      </c>
+      <c r="C259" t="s">
+        <v>4</v>
+      </c>
+      <c r="D259">
+        <v>2500</v>
+      </c>
+      <c r="E259">
+        <v>1.369</v>
+      </c>
+      <c r="F259">
+        <v>5981</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>20</v>
+      </c>
+      <c r="B260">
+        <v>100</v>
+      </c>
+      <c r="C260" t="s">
+        <v>4</v>
+      </c>
+      <c r="D260">
+        <v>3000</v>
+      </c>
+      <c r="E260">
+        <v>1.6830000000000001</v>
+      </c>
+      <c r="F260">
+        <v>8077</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>20</v>
+      </c>
+      <c r="B261">
+        <v>100</v>
+      </c>
+      <c r="C261" t="s">
+        <v>4</v>
+      </c>
+      <c r="D261">
+        <v>3500</v>
+      </c>
+      <c r="E261">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="F261">
+        <v>10556</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>20</v>
+      </c>
+      <c r="B262">
+        <v>100</v>
+      </c>
+      <c r="C262" t="s">
+        <v>4</v>
+      </c>
+      <c r="D262">
+        <v>4000</v>
+      </c>
+      <c r="E262">
+        <v>2.262</v>
+      </c>
+      <c r="F262">
+        <v>13288</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>20</v>
+      </c>
+      <c r="B263">
+        <v>100</v>
+      </c>
+      <c r="C263" t="s">
+        <v>4</v>
+      </c>
+      <c r="D263">
+        <v>5000</v>
+      </c>
+      <c r="E263">
+        <v>2.8130000000000002</v>
+      </c>
+      <c r="F263">
+        <v>19380</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>20</v>
+      </c>
+      <c r="B264">
+        <v>100</v>
+      </c>
+      <c r="C264" t="s">
+        <v>4</v>
+      </c>
+      <c r="D264">
+        <v>6000</v>
+      </c>
+      <c r="E264">
+        <v>3.3159999999999998</v>
+      </c>
+      <c r="F264">
+        <v>26785</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>20</v>
+      </c>
+      <c r="B265">
+        <v>100</v>
+      </c>
+      <c r="C265" t="s">
+        <v>4</v>
+      </c>
+      <c r="D265">
+        <v>7000</v>
+      </c>
+      <c r="E265">
+        <v>3.9239999999999999</v>
+      </c>
+      <c r="F265">
+        <v>35282</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>20</v>
+      </c>
+      <c r="B266">
+        <v>100</v>
+      </c>
+      <c r="C266" t="s">
+        <v>4</v>
+      </c>
+      <c r="D266">
+        <v>8000</v>
+      </c>
+      <c r="E266">
+        <v>4.4770000000000003</v>
+      </c>
+      <c r="F266">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>20</v>
+      </c>
+      <c r="B267">
+        <v>100</v>
+      </c>
+      <c r="C267" t="s">
+        <v>4</v>
+      </c>
+      <c r="D267">
+        <v>10000</v>
+      </c>
+      <c r="E267">
+        <v>6.1219999999999999</v>
+      </c>
+      <c r="F267">
+        <v>67994</v>
       </c>
     </row>
   </sheetData>

--- a/docs/report.xlsx
+++ b/docs/report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="23">
   <si>
     <t>Diagonally placed points</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Box self conflict by octree</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Detection</t>
   </si>
 </sst>
 </file>
@@ -5717,7 +5723,18 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="hu-HU" baseline="0"/>
-              <a:t>Collision detection for 100 to 10000 points using OctreeBox</a:t>
+              <a:t>Collision detection using OctreeBox</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>for 100 to 10 000 boxes </a:t>
             </a:r>
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
@@ -5761,9 +5778,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11581555555555556"/>
-          <c:y val="9.8180769230769224E-2"/>
-          <c:w val="0.68839222222222218"/>
-          <c:h val="0.7813230769230769"/>
+          <c:y val="0.12260384615384616"/>
+          <c:w val="0.69015611111111108"/>
+          <c:h val="0.75690000000000002"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5804,7 +5821,18 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:delete val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5875E-2"/>
+                  <c:y val="5.4273504273503279E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -5815,10 +5843,47 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.0684722222222227E-2"/>
+                  <c:y val="-3.1186965811965811E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-8C5D-4FE1-B287-AC51BF45D6BB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="2"/>
-              <c:delete val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9986111111111144E-2"/>
+                  <c:y val="-2.7136752136752137E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-9AED-465E-B34D-BBC1C48444ED}"/>
                 </c:ext>
@@ -5868,8 +5933,8 @@
               <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.9042500000000003E-2"/>
-                  <c:y val="-4.4673717948717946E-2"/>
+                  <c:x val="-3.669527777777791E-2"/>
+                  <c:y val="-3.6532692307692308E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6004,46 +6069,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3.6999999999999998E-2</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28799999999999998</c:v>
+                  <c:v>0.214</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86499999999999999</c:v>
+                  <c:v>0.63200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5389999999999999</c:v>
+                  <c:v>0.99399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.403</c:v>
+                  <c:v>1.403</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.391</c:v>
+                  <c:v>1.8560000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>2.4020000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.633</c:v>
+                  <c:v>3.585</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.6769999999999996</c:v>
+                  <c:v>4.923</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.805999999999999</c:v>
+                  <c:v>6.5149999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.497</c:v>
+                  <c:v>8.4410000000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.407</c:v>
+                  <c:v>10.307</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.131</c:v>
+                  <c:v>14.882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6090,8 +6155,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.1620833333333332E-2"/>
-                  <c:y val="3.3900641025640929E-2"/>
+                  <c:x val="-8.4212499999999996E-2"/>
+                  <c:y val="3.1186965811965811E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6298,46 +6363,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5.8999999999999997E-2</c:v>
+                  <c:v>3.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.254</c:v>
+                  <c:v>0.14499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.28599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75700000000000001</c:v>
+                  <c:v>0.39100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0309999999999999</c:v>
+                  <c:v>0.47699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.369</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6830000000000001</c:v>
+                  <c:v>0.65400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9870000000000001</c:v>
+                  <c:v>0.75900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.262</c:v>
+                  <c:v>0.85799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8130000000000002</c:v>
+                  <c:v>1.0629999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3159999999999998</c:v>
+                  <c:v>1.2949999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.9239999999999999</c:v>
+                  <c:v>1.587</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4770000000000003</c:v>
+                  <c:v>1.825</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.1219999999999999</c:v>
+                  <c:v>2.5310000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6382,7 +6447,18 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:delete val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0583333333333318E-2"/>
+                  <c:y val="4.3418803418803421E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -6394,7 +6470,18 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:delete val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.8791666666666668E-2"/>
+                  <c:y val="-6.2414529914529913E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -6428,8 +6515,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.7729861111111143E-2"/>
-                  <c:y val="-3.6310897435897535E-2"/>
+                  <c:x val="-7.8882638888888884E-2"/>
+                  <c:y val="-3.6310897435897486E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6462,9 +6549,7 @@
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-DBE6-43DE-910A-83DED8CCA67B}"/>
                 </c:ext>
@@ -6474,8 +6559,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.9367361111111114E-2"/>
-                  <c:y val="3.9017307692307594E-2"/>
+                  <c:x val="-8.0534027777777781E-2"/>
+                  <c:y val="-3.9679273504273506E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6498,8 +6583,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7184722222222223E-2"/>
-                  <c:y val="-2.0372863247863249E-2"/>
+                  <c:x val="-4.011527777777784E-2"/>
+                  <c:y val="-4.7509615384615386E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6515,6 +6600,54 @@
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-9AED-465E-B34D-BBC1C48444ED}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1192500000000002E-2"/>
+                  <c:y val="-3.9368589743589741E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-8C5D-4FE1-B287-AC51BF45D6BB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.345027777777784E-2"/>
+                  <c:y val="-4.4795940170940199E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-8C5D-4FE1-B287-AC51BF45D6BB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6606,9 +6739,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-9AED-465E-B34D-BBC1C48444ED}"/>
                 </c:ext>
@@ -6630,9 +6761,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-9AED-465E-B34D-BBC1C48444ED}"/>
                 </c:ext>
@@ -6677,7 +6806,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6870,7 +6998,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="hu-HU"/>
-                  <a:t>Number of points</a:t>
+                  <a:t>Number of boxes</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6905,7 +7033,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7098,7 +7226,1160 @@
           <c:x val="0.79791055555555557"/>
           <c:y val="0.37863717948717951"/>
           <c:w val="0.19327"/>
-          <c:h val="0.24592777777777777"/>
+          <c:h val="0.20522264957264955"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t>Using Morton Z-order (OctreeBox) vs. typical implementation performace for 10 to 100M box</a:t>
+            </a:r>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11581555555555556"/>
+          <c:y val="0.14702692307692308"/>
+          <c:w val="0.66369777777777794"/>
+          <c:h val="0.73247692307692303"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Typical</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.8337499999999995E-2"/>
+                  <c:y val="1.3771367521367521E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-4843-443B-A16F-AD756CF3E9EF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-4843-443B-A16F-AD756CF3E9EF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1295833333333335E-2"/>
+                  <c:y val="-6.6464743589743594E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-4843-443B-A16F-AD756CF3E9EF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-4843-443B-A16F-AD756CF3E9EF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5811388888888886E-2"/>
+                  <c:y val="-2.5759615384615384E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-4843-443B-A16F-AD756CF3E9EF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>report!$D$213:$D$224</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>report!$E$213:$E$224</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>819.03399999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8992.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-4843-443B-A16F-AD756CF3E9EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Morton (unseq)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>report!$D$189:$D$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>report!$E$189:$E$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84.283000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>785.20600000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7903.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-4843-443B-A16F-AD756CF3E9EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Morton (par)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-4843-443B-A16F-AD756CF3E9EF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.355361111111111E-2"/>
+                  <c:y val="-5.8323717948717949E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-4843-443B-A16F-AD756CF3E9EF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0598671251488763E-2"/>
+                  <c:y val="4.1793789575924931E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-4843-443B-A16F-AD756CF3E9EF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1091426461204318E-2"/>
+                  <c:y val="3.9098716699668933E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-4843-443B-A16F-AD756CF3E9EF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5306174059264909E-2"/>
+                  <c:y val="3.370857094715686E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-4843-443B-A16F-AD756CF3E9EF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>report!$D$201:$D$212</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>report!$E$201:$E$212</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.695</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>250.864</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2730.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-4843-443B-A16F-AD756CF3E9EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="373844184"/>
+        <c:axId val="426270320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="373844184"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="100000000"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Number of points (log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="hu-HU" baseline="0"/>
+                  <a:t> scale)</a:t>
+                </a:r>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426270320"/>
+        <c:crossesAt val="1.0000000000000003E-4"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="426270320"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Time </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="hu-HU" baseline="0"/>
+                  <a:t>[ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373844184"/>
+        <c:crossesAt val="1.0000000000000003E-4"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80929680555555561"/>
+          <c:y val="0.46157371794871804"/>
+          <c:w val="0.13425875000000001"/>
+          <c:h val="0.18317435897435899"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7288,6 +8569,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9391,6 +10712,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9489,16 +11326,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>429986</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>25852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>418200</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>41325</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>91629</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>503</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9514,6 +11351,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>81644</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>40820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>423644</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>15470</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagram 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9787,8 +11656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="E229" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P272" sqref="P272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14660,7 +16529,7 @@
         <v>10</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="F189" t="s">
         <v>2</v>
@@ -15140,7 +17009,7 @@
         <v>10</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F213">
         <v>1080</v>
@@ -15366,7 +17235,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>18</v>
       </c>
@@ -15386,7 +17255,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>19</v>
       </c>
@@ -15406,7 +17275,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>19</v>
       </c>
@@ -15426,7 +17295,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>19</v>
       </c>
@@ -15446,7 +17315,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>19</v>
       </c>
@@ -15466,7 +17335,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>19</v>
       </c>
@@ -15486,7 +17355,7 @@
         <v>4179</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>19</v>
       </c>
@@ -15506,7 +17375,7 @@
         <v>5980</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>19</v>
       </c>
@@ -15526,7 +17395,7 @@
         <v>8075</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>19</v>
       </c>
@@ -15546,7 +17415,7 @@
         <v>10554</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>19</v>
       </c>
@@ -15566,7 +17435,7 @@
         <v>13285</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>19</v>
       </c>
@@ -15586,7 +17455,7 @@
         <v>19374</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>19</v>
       </c>
@@ -15606,7 +17475,7 @@
         <v>26769</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>19</v>
       </c>
@@ -15626,7 +17495,7 @@
         <v>35258</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>19</v>
       </c>
@@ -15646,7 +17515,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>19</v>
       </c>
@@ -15665,8 +17534,14 @@
       <c r="F239">
         <v>67944</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H239" t="s">
+        <v>21</v>
+      </c>
+      <c r="I239" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>20</v>
       </c>
@@ -15680,13 +17555,20 @@
         <v>100</v>
       </c>
       <c r="E240">
-        <v>3.6999999999999998E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F240">
         <v>105</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H240">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I240">
+        <f>E240-H240</f>
+        <v>1.2999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>20</v>
       </c>
@@ -15700,13 +17582,20 @@
         <v>500</v>
       </c>
       <c r="E241">
-        <v>0.28799999999999998</v>
+        <v>0.214</v>
       </c>
       <c r="F241">
         <v>617</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H241">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="I241">
+        <f t="shared" ref="I241:I267" si="0">E241-H241</f>
+        <v>0.11499999999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>20</v>
       </c>
@@ -15720,13 +17609,20 @@
         <v>1000</v>
       </c>
       <c r="E242">
-        <v>0.86499999999999999</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="F242">
         <v>1524</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H242">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="I242">
+        <f t="shared" si="0"/>
+        <v>0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>20</v>
       </c>
@@ -15740,13 +17636,20 @@
         <v>1500</v>
       </c>
       <c r="E243">
-        <v>1.5389999999999999</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F243">
         <v>2762</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H243">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="I243">
+        <f t="shared" si="0"/>
+        <v>0.43499999999999994</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>20</v>
       </c>
@@ -15760,13 +17663,20 @@
         <v>2000</v>
       </c>
       <c r="E244">
-        <v>2.403</v>
+        <v>1.403</v>
       </c>
       <c r="F244">
         <v>4180</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H244">
+        <v>0.76</v>
+      </c>
+      <c r="I244">
+        <f t="shared" si="0"/>
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>20</v>
       </c>
@@ -15780,13 +17690,20 @@
         <v>2500</v>
       </c>
       <c r="E245">
-        <v>3.391</v>
+        <v>1.8560000000000001</v>
       </c>
       <c r="F245">
         <v>5981</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H245">
+        <v>1</v>
+      </c>
+      <c r="I245">
+        <f t="shared" si="0"/>
+        <v>0.85600000000000009</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>20</v>
       </c>
@@ -15800,13 +17717,20 @@
         <v>3000</v>
       </c>
       <c r="E246">
-        <v>4.5999999999999996</v>
+        <v>2.4020000000000001</v>
       </c>
       <c r="F246">
         <v>8077</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H246">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="I246">
+        <f t="shared" si="0"/>
+        <v>1.161</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>20</v>
       </c>
@@ -15820,13 +17744,20 @@
         <v>3500</v>
       </c>
       <c r="E247">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="F247">
         <v>10556</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H247">
+        <v>1.454</v>
+      </c>
+      <c r="I247">
+        <f t="shared" si="0"/>
+        <v>1.546</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>20</v>
       </c>
@@ -15840,13 +17771,20 @@
         <v>4000</v>
       </c>
       <c r="E248">
-        <v>6.633</v>
+        <v>3.585</v>
       </c>
       <c r="F248">
         <v>13288</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H248">
+        <v>1.639</v>
+      </c>
+      <c r="I248">
+        <f t="shared" si="0"/>
+        <v>1.946</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>20</v>
       </c>
@@ -15860,13 +17798,20 @@
         <v>5000</v>
       </c>
       <c r="E249">
-        <v>8.6769999999999996</v>
+        <v>4.923</v>
       </c>
       <c r="F249">
         <v>19380</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H249">
+        <v>2.0409999999999999</v>
+      </c>
+      <c r="I249">
+        <f t="shared" si="0"/>
+        <v>2.8820000000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>20</v>
       </c>
@@ -15880,13 +17825,20 @@
         <v>6000</v>
       </c>
       <c r="E250">
-        <v>10.805999999999999</v>
+        <v>6.5149999999999997</v>
       </c>
       <c r="F250">
         <v>26785</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H250">
+        <v>2.3620000000000001</v>
+      </c>
+      <c r="I250">
+        <f t="shared" si="0"/>
+        <v>4.1529999999999996</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>20</v>
       </c>
@@ -15900,13 +17852,20 @@
         <v>7000</v>
       </c>
       <c r="E251">
-        <v>13.497</v>
+        <v>8.4410000000000007</v>
       </c>
       <c r="F251">
         <v>35282</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H251">
+        <v>2.6890000000000001</v>
+      </c>
+      <c r="I251">
+        <f t="shared" si="0"/>
+        <v>5.7520000000000007</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>20</v>
       </c>
@@ -15920,13 +17879,20 @@
         <v>8000</v>
       </c>
       <c r="E252">
-        <v>16.407</v>
+        <v>10.307</v>
       </c>
       <c r="F252">
         <v>44957</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H252">
+        <v>3.048</v>
+      </c>
+      <c r="I252">
+        <f t="shared" si="0"/>
+        <v>7.2590000000000003</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>20</v>
       </c>
@@ -15940,13 +17906,20 @@
         <v>10000</v>
       </c>
       <c r="E253">
-        <v>23.131</v>
+        <v>14.882</v>
       </c>
       <c r="F253">
         <v>67994</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H253">
+        <v>3.7330000000000001</v>
+      </c>
+      <c r="I253">
+        <f t="shared" si="0"/>
+        <v>11.148999999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>20</v>
       </c>
@@ -15960,13 +17933,20 @@
         <v>100</v>
       </c>
       <c r="E254">
-        <v>5.8999999999999997E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="F254">
         <v>105</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H254">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I254">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999985E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>20</v>
       </c>
@@ -15980,13 +17960,20 @@
         <v>500</v>
       </c>
       <c r="E255">
-        <v>0.254</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="F255">
         <v>617</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H255">
+        <v>0.127</v>
+      </c>
+      <c r="I255">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999988E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>20</v>
       </c>
@@ -16000,13 +17987,20 @@
         <v>1000</v>
       </c>
       <c r="E256">
-        <v>0.5</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="F256">
         <v>1524</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H256">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="I256">
+        <f t="shared" si="0"/>
+        <v>1.8999999999999961E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>20</v>
       </c>
@@ -16020,13 +18014,20 @@
         <v>1500</v>
       </c>
       <c r="E257">
-        <v>0.75700000000000001</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="F257">
         <v>2762</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H257">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="I257">
+        <f t="shared" si="0"/>
+        <v>9.000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>20</v>
       </c>
@@ -16040,13 +18041,20 @@
         <v>2000</v>
       </c>
       <c r="E258">
-        <v>1.0309999999999999</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="F258">
         <v>4180</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H258">
+        <v>0.51</v>
+      </c>
+      <c r="I258">
+        <f t="shared" si="0"/>
+        <v>-3.3000000000000029E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>20</v>
       </c>
@@ -16060,13 +18068,20 @@
         <v>2500</v>
       </c>
       <c r="E259">
-        <v>1.369</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F259">
         <v>5981</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H259">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="I259">
+        <f t="shared" si="0"/>
+        <v>-9.099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>20</v>
       </c>
@@ -16080,13 +18095,20 @@
         <v>3000</v>
       </c>
       <c r="E260">
-        <v>1.6830000000000001</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="F260">
         <v>8077</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H260">
+        <v>0.79</v>
+      </c>
+      <c r="I260">
+        <f t="shared" si="0"/>
+        <v>-0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>20</v>
       </c>
@@ -16100,13 +18122,20 @@
         <v>3500</v>
       </c>
       <c r="E261">
-        <v>1.9870000000000001</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="F261">
         <v>10556</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H261">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="I261">
+        <f t="shared" si="0"/>
+        <v>-0.16400000000000003</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>20</v>
       </c>
@@ -16120,13 +18149,20 @@
         <v>4000</v>
       </c>
       <c r="E262">
-        <v>2.262</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="F262">
         <v>13288</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H262">
+        <v>1.01</v>
+      </c>
+      <c r="I262">
+        <f t="shared" si="0"/>
+        <v>-0.15200000000000002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>20</v>
       </c>
@@ -16140,13 +18176,20 @@
         <v>5000</v>
       </c>
       <c r="E263">
-        <v>2.8130000000000002</v>
+        <v>1.0629999999999999</v>
       </c>
       <c r="F263">
         <v>19380</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H263">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="I263">
+        <f t="shared" si="0"/>
+        <v>-0.129</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>20</v>
       </c>
@@ -16160,13 +18203,20 @@
         <v>6000</v>
       </c>
       <c r="E264">
-        <v>3.3159999999999998</v>
+        <v>1.2949999999999999</v>
       </c>
       <c r="F264">
         <v>26785</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H264">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I264">
+        <f t="shared" si="0"/>
+        <v>-6.7000000000000171E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>20</v>
       </c>
@@ -16180,13 +18230,20 @@
         <v>7000</v>
       </c>
       <c r="E265">
-        <v>3.9239999999999999</v>
+        <v>1.587</v>
       </c>
       <c r="F265">
         <v>35282</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H265">
+        <v>1.5269999999999999</v>
+      </c>
+      <c r="I265">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>20</v>
       </c>
@@ -16200,13 +18257,20 @@
         <v>8000</v>
       </c>
       <c r="E266">
-        <v>4.4770000000000003</v>
+        <v>1.825</v>
       </c>
       <c r="F266">
         <v>44957</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H266">
+        <v>1.679</v>
+      </c>
+      <c r="I266">
+        <f t="shared" si="0"/>
+        <v>0.14599999999999991</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>20</v>
       </c>
@@ -16220,10 +18284,17 @@
         <v>10000</v>
       </c>
       <c r="E267">
-        <v>6.1219999999999999</v>
+        <v>2.5310000000000001</v>
       </c>
       <c r="F267">
         <v>67994</v>
+      </c>
+      <c r="H267">
+        <v>2.06</v>
+      </c>
+      <c r="I267">
+        <f t="shared" si="0"/>
+        <v>0.47100000000000009</v>
       </c>
     </row>
   </sheetData>
